--- a/данные.xlsx
+++ b/данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E8428-6FE8-41FB-9F80-7AAB8B0C2BEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B286D-3119-45BE-B71A-D07869A7E318}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Задание 3" sheetId="3" r:id="rId3"/>
     <sheet name="Данные" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021" refMode="R1C1"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="105">
   <si>
     <t>Заболевания</t>
   </si>
@@ -280,9 +280,6 @@
     <t>с белым налетом</t>
   </si>
   <si>
-    <t>краынй</t>
-  </si>
-  <si>
     <t>влажный</t>
   </si>
   <si>
@@ -374,12 +371,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,108 +834,372 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,283 +1208,22 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1550,42 +1558,42 @@
         <v>1</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="78"/>
+      <c r="E1" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="79"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="78"/>
+      <c r="H1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="79"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="78"/>
+      <c r="L1" s="79"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="78"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="79"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="88"/>
-      <c r="X1" s="89" t="s">
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
+      <c r="X1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="92"/>
     </row>
     <row r="2" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -1610,14 +1618,14 @@
         <v>18</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="82" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="30"/>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="84" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="29" t="s">
@@ -1627,13 +1635,13 @@
         <v>5</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="92" t="s">
+      <c r="R2" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="92">
+      <c r="T2" s="93">
         <v>5</v>
       </c>
       <c r="U2" s="9">
@@ -1642,13 +1650,13 @@
       <c r="V2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="92" t="s">
+      <c r="X2" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="92">
+      <c r="Z2" s="93">
         <v>5</v>
       </c>
       <c r="AA2" s="9">
@@ -1684,12 +1692,12 @@
         <v>29</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="82"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="30"/>
-      <c r="N3" s="83"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="28" t="s">
         <v>11</v>
       </c>
@@ -1697,18 +1705,18 @@
         <v>2</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
       <c r="U3" s="9">
         <v>2</v>
       </c>
       <c r="V3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
       <c r="AA3" s="9">
         <v>2</v>
       </c>
@@ -1740,12 +1748,12 @@
         <v>19</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="82"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="30"/>
-      <c r="N4" s="83"/>
+      <c r="N4" s="84"/>
       <c r="O4" s="28" t="s">
         <v>13</v>
       </c>
@@ -1753,18 +1761,18 @@
         <v>3</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
       <c r="U4" s="9">
         <v>3</v>
       </c>
       <c r="V4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
       <c r="AA4" s="9">
         <v>3</v>
       </c>
@@ -1796,12 +1804,12 @@
         <v>8</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="82"/>
+      <c r="K5" s="83"/>
       <c r="L5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="30"/>
-      <c r="N5" s="83"/>
+      <c r="N5" s="84"/>
       <c r="O5" s="28" t="s">
         <v>14</v>
       </c>
@@ -1809,18 +1817,18 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
       <c r="U5" s="9">
         <v>4</v>
       </c>
       <c r="V5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
       <c r="AA5" s="9">
         <v>4</v>
       </c>
@@ -1852,12 +1860,12 @@
         <v>20</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="82"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="30"/>
-      <c r="N6" s="83"/>
+      <c r="N6" s="84"/>
       <c r="O6" s="28" t="s">
         <v>15</v>
       </c>
@@ -1865,18 +1873,18 @@
         <v>3</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
       <c r="U6" s="8">
         <v>5</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
       <c r="AA6" s="8">
         <v>5</v>
       </c>
@@ -1908,12 +1916,12 @@
         <v>21</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="82"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="30"/>
-      <c r="N7" s="81"/>
+      <c r="N7" s="82"/>
       <c r="O7" s="28" t="s">
         <v>17</v>
       </c>
@@ -1921,11 +1929,11 @@
         <v>2</v>
       </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="80" t="s">
+      <c r="R7" s="86"/>
+      <c r="S7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="80">
+      <c r="T7" s="81">
         <v>2</v>
       </c>
       <c r="U7" s="8">
@@ -1935,11 +1943,11 @@
         <v>30</v>
       </c>
       <c r="W7" s="17"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="80" t="s">
+      <c r="X7" s="86"/>
+      <c r="Y7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="Z7" s="80">
+      <c r="Z7" s="81">
         <v>2</v>
       </c>
       <c r="AA7" s="8">
@@ -1963,14 +1971,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="83" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="30"/>
-      <c r="N8" s="80" t="s">
+      <c r="N8" s="81" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="31" t="s">
@@ -1980,9 +1988,9 @@
         <v>4</v>
       </c>
       <c r="Q8" s="1"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
       <c r="U8" s="8">
         <v>2</v>
       </c>
@@ -1990,9 +1998,9 @@
         <v>34</v>
       </c>
       <c r="W8" s="17"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
       <c r="AA8" s="8">
         <v>2</v>
       </c>
@@ -2014,12 +2022,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="82"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="31" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="30"/>
-      <c r="N9" s="83"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
@@ -2027,11 +2035,11 @@
         <v>3</v>
       </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="80" t="s">
+      <c r="R9" s="86"/>
+      <c r="S9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="80">
+      <c r="T9" s="81">
         <v>3</v>
       </c>
       <c r="U9" s="8">
@@ -2041,11 +2049,11 @@
         <v>45</v>
       </c>
       <c r="W9" s="17"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="82" t="s">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="Z9" s="82">
+      <c r="Z9" s="83">
         <v>3</v>
       </c>
       <c r="AA9" s="8">
@@ -2069,12 +2077,12 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="82"/>
+      <c r="K10" s="83"/>
       <c r="L10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="30"/>
-      <c r="N10" s="83"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="31" t="s">
         <v>13</v>
       </c>
@@ -2082,9 +2090,9 @@
         <v>3</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
       <c r="U10" s="8">
         <v>2</v>
       </c>
@@ -2092,9 +2100,9 @@
         <v>74</v>
       </c>
       <c r="W10" s="17"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
       <c r="AA10" s="8">
         <v>2</v>
       </c>
@@ -2116,12 +2124,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="82"/>
+      <c r="K11" s="83"/>
       <c r="L11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="30"/>
-      <c r="N11" s="83"/>
+      <c r="N11" s="84"/>
       <c r="O11" s="31" t="s">
         <v>14</v>
       </c>
@@ -2129,9 +2137,9 @@
         <v>2</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
       <c r="U11" s="8">
         <v>3</v>
       </c>
@@ -2139,9 +2147,9 @@
         <v>73</v>
       </c>
       <c r="W11" s="17"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
       <c r="AA11" s="8">
         <v>3</v>
       </c>
@@ -2163,12 +2171,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="82"/>
+      <c r="K12" s="83"/>
       <c r="L12" s="31" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="30"/>
-      <c r="N12" s="83"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="31" t="s">
         <v>15</v>
       </c>
@@ -2176,11 +2184,11 @@
         <v>5</v>
       </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="93" t="s">
+      <c r="R12" s="86"/>
+      <c r="S12" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="93">
+      <c r="T12" s="94">
         <v>4</v>
       </c>
       <c r="U12" s="8">
@@ -2190,11 +2198,11 @@
         <v>36</v>
       </c>
       <c r="W12" s="17"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="93" t="s">
+      <c r="X12" s="86"/>
+      <c r="Y12" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Z12" s="93">
+      <c r="Z12" s="94">
         <v>4</v>
       </c>
       <c r="AA12" s="8">
@@ -2218,12 +2226,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="82"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="31" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="30"/>
-      <c r="N13" s="81"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="31" t="s">
         <v>17</v>
       </c>
@@ -2231,9 +2239,9 @@
         <v>2</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
       <c r="U13" s="8">
         <v>2</v>
       </c>
@@ -2241,9 +2249,9 @@
         <v>52</v>
       </c>
       <c r="W13" s="17"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
       <c r="AA13" s="8">
         <v>2</v>
       </c>
@@ -2272,9 +2280,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
       <c r="U14" s="8">
         <v>3</v>
       </c>
@@ -2282,9 +2290,9 @@
         <v>53</v>
       </c>
       <c r="W14" s="15"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
       <c r="AA14" s="8">
         <v>3</v>
       </c>
@@ -2313,9 +2321,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
       <c r="U15" s="8">
         <v>4</v>
       </c>
@@ -2323,9 +2331,9 @@
         <v>54</v>
       </c>
       <c r="W15" s="15"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
       <c r="AA15" s="8">
         <v>4</v>
       </c>
@@ -2354,11 +2362,11 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="82" t="s">
+      <c r="R16" s="86"/>
+      <c r="S16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="82">
+      <c r="T16" s="83">
         <v>3</v>
       </c>
       <c r="U16" s="8">
@@ -2368,11 +2376,11 @@
         <v>22</v>
       </c>
       <c r="W16" s="15"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="82" t="s">
+      <c r="X16" s="86"/>
+      <c r="Y16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="Z16" s="82">
+      <c r="Z16" s="83">
         <v>3</v>
       </c>
       <c r="AA16" s="8">
@@ -2403,9 +2411,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
       <c r="U17" s="8">
         <v>2</v>
       </c>
@@ -2413,9 +2421,9 @@
         <v>24</v>
       </c>
       <c r="W17" s="15"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
       <c r="AA17" s="8">
         <v>2</v>
       </c>
@@ -2444,9 +2452,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
       <c r="U18" s="8">
         <v>3</v>
       </c>
@@ -2454,9 +2462,9 @@
         <v>23</v>
       </c>
       <c r="W18" s="15"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
       <c r="AA18" s="8">
         <v>3</v>
       </c>
@@ -2485,11 +2493,11 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="82" t="s">
+      <c r="R19" s="86"/>
+      <c r="S19" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="82">
+      <c r="T19" s="83">
         <v>2</v>
       </c>
       <c r="U19" s="8">
@@ -2499,11 +2507,11 @@
         <v>41</v>
       </c>
       <c r="W19" s="15"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="82" t="s">
+      <c r="X19" s="86"/>
+      <c r="Y19" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="Z19" s="82">
+      <c r="Z19" s="83">
         <v>2</v>
       </c>
       <c r="AA19" s="8">
@@ -2534,9 +2542,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
       <c r="U20" s="8">
         <v>2</v>
       </c>
@@ -2544,9 +2552,9 @@
         <v>40</v>
       </c>
       <c r="W20" s="15"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
       <c r="AA20" s="8">
         <v>2</v>
       </c>
@@ -2575,13 +2583,13 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="80" t="s">
+      <c r="R21" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="T21" s="80">
+      <c r="T21" s="81">
         <v>4</v>
       </c>
       <c r="U21" s="8">
@@ -2591,13 +2599,13 @@
         <v>64</v>
       </c>
       <c r="W21" s="16"/>
-      <c r="X21" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y21" s="80" t="s">
+      <c r="X21" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Z21" s="80">
+      <c r="Z21" s="81">
         <v>4</v>
       </c>
       <c r="AA21" s="8">
@@ -2628,9 +2636,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
       <c r="U22" s="10">
         <v>2</v>
       </c>
@@ -2638,9 +2646,9 @@
         <v>38</v>
       </c>
       <c r="W22" s="4"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
       <c r="AA22" s="10">
         <v>2</v>
       </c>
@@ -2669,9 +2677,9 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
       <c r="U23" s="10">
         <v>3</v>
       </c>
@@ -2679,9 +2687,9 @@
         <v>56</v>
       </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
       <c r="AA23" s="10">
         <v>3</v>
       </c>
@@ -2710,9 +2718,9 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
       <c r="U24" s="8">
         <v>4</v>
       </c>
@@ -2720,9 +2728,9 @@
         <v>65</v>
       </c>
       <c r="W24" s="1"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
       <c r="AA24" s="8">
         <v>4</v>
       </c>
@@ -2751,11 +2759,11 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="94" t="s">
+      <c r="R25" s="84"/>
+      <c r="S25" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="T25" s="80">
+      <c r="T25" s="81">
         <v>3</v>
       </c>
       <c r="U25" s="8">
@@ -2765,11 +2773,11 @@
         <v>31</v>
       </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="94" t="s">
+      <c r="X25" s="83"/>
+      <c r="Y25" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="Z25" s="80">
+      <c r="Z25" s="81">
         <v>3</v>
       </c>
       <c r="AA25" s="8">
@@ -2800,9 +2808,9 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="83"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="84"/>
       <c r="U26" s="8">
         <v>2</v>
       </c>
@@ -2810,9 +2818,9 @@
         <v>32</v>
       </c>
       <c r="W26" s="1"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="84"/>
       <c r="AA26" s="8">
         <v>2</v>
       </c>
@@ -2841,9 +2849,9 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="81"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="82"/>
       <c r="U27" s="8">
         <v>3</v>
       </c>
@@ -2851,9 +2859,9 @@
         <v>33</v>
       </c>
       <c r="W27" s="1"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="81"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="82"/>
       <c r="AA27" s="8">
         <v>3</v>
       </c>
@@ -2882,11 +2890,11 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="82" t="s">
+      <c r="R28" s="84"/>
+      <c r="S28" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="82">
+      <c r="T28" s="83">
         <v>3</v>
       </c>
       <c r="U28" s="8">
@@ -2896,11 +2904,11 @@
         <v>35</v>
       </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82" t="s">
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="Z28" s="82">
+      <c r="Z28" s="83">
         <v>3</v>
       </c>
       <c r="AA28" s="8">
@@ -2914,18 +2922,18 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="25" x14ac:dyDescent="0.35">
-      <c r="R29" s="83"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
       <c r="U29" s="8">
         <v>2</v>
       </c>
       <c r="V29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
       <c r="AA29" s="8">
         <v>2</v>
       </c>
@@ -2937,18 +2945,18 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="25" x14ac:dyDescent="0.35">
-      <c r="R30" s="83"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
       <c r="U30" s="8">
         <v>3</v>
       </c>
       <c r="V30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
       <c r="AA30" s="8">
         <v>3</v>
       </c>
@@ -2960,11 +2968,11 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R31" s="83"/>
-      <c r="S31" s="93" t="s">
+      <c r="R31" s="84"/>
+      <c r="S31" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="T31" s="93">
+      <c r="T31" s="94">
         <v>2</v>
       </c>
       <c r="U31" s="8">
@@ -2973,11 +2981,11 @@
       <c r="V31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="93" t="s">
+      <c r="X31" s="83"/>
+      <c r="Y31" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Z31" s="93">
+      <c r="Z31" s="94">
         <v>2</v>
       </c>
       <c r="AA31" s="8">
@@ -2991,18 +2999,18 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="50" x14ac:dyDescent="0.35">
-      <c r="R32" s="83"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
       <c r="U32" s="8">
         <v>2</v>
       </c>
       <c r="V32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
       <c r="AA32" s="8">
         <v>2</v>
       </c>
@@ -3014,11 +3022,11 @@
       </c>
     </row>
     <row r="33" spans="18:29" x14ac:dyDescent="0.35">
-      <c r="R33" s="83"/>
-      <c r="S33" s="80" t="s">
+      <c r="R33" s="84"/>
+      <c r="S33" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="T33" s="80">
+      <c r="T33" s="81">
         <v>5</v>
       </c>
       <c r="U33" s="8">
@@ -3027,11 +3035,11 @@
       <c r="V33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="80" t="s">
+      <c r="X33" s="83"/>
+      <c r="Y33" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Z33" s="80">
+      <c r="Z33" s="81">
         <v>5</v>
       </c>
       <c r="AA33" s="8">
@@ -3045,18 +3053,18 @@
       </c>
     </row>
     <row r="34" spans="18:29" x14ac:dyDescent="0.35">
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
       <c r="U34" s="8">
         <v>2</v>
       </c>
       <c r="V34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
       <c r="AA34" s="8">
         <v>2</v>
       </c>
@@ -3068,18 +3076,18 @@
       </c>
     </row>
     <row r="35" spans="18:29" x14ac:dyDescent="0.35">
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
       <c r="U35" s="8">
         <v>3</v>
       </c>
       <c r="V35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="84"/>
       <c r="AA35" s="8">
         <v>3</v>
       </c>
@@ -3091,18 +3099,18 @@
       </c>
     </row>
     <row r="36" spans="18:29" x14ac:dyDescent="0.35">
-      <c r="R36" s="83"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="83"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
       <c r="U36" s="8">
         <v>4</v>
       </c>
       <c r="V36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="83"/>
+      <c r="X36" s="83"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
       <c r="AA36" s="8">
         <v>4</v>
       </c>
@@ -3114,18 +3122,18 @@
       </c>
     </row>
     <row r="37" spans="18:29" x14ac:dyDescent="0.35">
-      <c r="R37" s="83"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
       <c r="U37" s="8">
         <v>5</v>
       </c>
       <c r="V37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
       <c r="AA37" s="8">
         <v>5</v>
       </c>
@@ -3137,11 +3145,11 @@
       </c>
     </row>
     <row r="38" spans="18:29" ht="25" x14ac:dyDescent="0.35">
-      <c r="R38" s="83"/>
-      <c r="S38" s="82" t="s">
+      <c r="R38" s="84"/>
+      <c r="S38" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="T38" s="82">
+      <c r="T38" s="83">
         <v>2</v>
       </c>
       <c r="U38" s="8">
@@ -3150,11 +3158,11 @@
       <c r="V38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="82" t="s">
+      <c r="X38" s="83"/>
+      <c r="Y38" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="Z38" s="82">
+      <c r="Z38" s="83">
         <v>2</v>
       </c>
       <c r="AA38" s="8">
@@ -3168,18 +3176,18 @@
       </c>
     </row>
     <row r="39" spans="18:29" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="R39" s="81"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
       <c r="U39" s="8">
         <v>2</v>
       </c>
       <c r="V39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="83"/>
       <c r="AA39" s="8">
         <v>2</v>
       </c>
@@ -3299,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A39199A-4201-4175-A043-909314BD8F93}">
   <dimension ref="A1:AI154"/>
   <sheetViews>
-    <sheetView topLeftCell="M21" zoomScale="78" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView topLeftCell="C72" zoomScale="57" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3339,51 +3347,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131"/>
+      <c r="I1" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
-      <c r="O1" s="131" t="s">
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
+      <c r="O1" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="133"/>
-      <c r="U1" s="131" t="s">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
+      <c r="U1" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="133"/>
-      <c r="AA1" s="131" t="s">
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="134"/>
+      <c r="AA1" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="134"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="108" t="s">
+      <c r="B2" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="109" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="37">
@@ -3397,13 +3405,13 @@
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="96" t="s">
+      <c r="J2" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="97" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="32">
@@ -3412,13 +3420,13 @@
       <c r="M2" s="32">
         <v>36.6</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="102" t="s">
+      <c r="P2" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="103" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="58">
@@ -3427,13 +3435,13 @@
       <c r="S2" s="61">
         <v>36.6</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="102" t="s">
+      <c r="V2" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="103" t="s">
         <v>7</v>
       </c>
       <c r="X2" s="32">
@@ -3442,13 +3450,13 @@
       <c r="Y2" s="32">
         <v>36.6</v>
       </c>
-      <c r="AA2" s="102" t="s">
+      <c r="AA2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="102" t="s">
+      <c r="AB2" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="103" t="s">
         <v>7</v>
       </c>
       <c r="AD2" s="32">
@@ -3459,9 +3467,9 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="108"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="108"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="37">
         <v>2</v>
       </c>
@@ -3473,36 +3481,36 @@
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="96"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="97"/>
       <c r="L3" s="32">
         <v>3</v>
       </c>
       <c r="M3" s="32">
         <v>36.700000000000003</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="103"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="104"/>
       <c r="R3" s="32">
         <v>3</v>
       </c>
       <c r="S3" s="61">
         <v>36.700000000000003</v>
       </c>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
       <c r="X3" s="58">
         <v>2</v>
       </c>
       <c r="Y3" s="32">
         <v>36.700000000000003</v>
       </c>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
       <c r="AD3" s="32">
         <v>5</v>
       </c>
@@ -3511,9 +3519,9 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="108"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="37">
         <v>3</v>
       </c>
@@ -3525,36 +3533,36 @@
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="96"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="32">
         <v>6</v>
       </c>
       <c r="M4" s="32">
         <v>37.200000000000003</v>
       </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="103"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="104"/>
       <c r="R4" s="32">
         <v>7</v>
       </c>
       <c r="S4" s="61">
         <v>37.200000000000003</v>
       </c>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
       <c r="X4" s="32">
         <v>5</v>
       </c>
       <c r="Y4" s="32">
         <v>37.299999999999997</v>
       </c>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
       <c r="AD4" s="32">
         <v>6</v>
       </c>
@@ -3563,9 +3571,9 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="37">
         <v>4</v>
       </c>
@@ -3577,36 +3585,36 @@
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="96"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="97"/>
       <c r="L5" s="32">
         <v>11</v>
       </c>
       <c r="M5" s="32">
         <v>36.9</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="103"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="104"/>
       <c r="R5" s="32">
         <v>13</v>
       </c>
       <c r="S5" s="61">
         <v>36.799999999999997</v>
       </c>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
       <c r="X5" s="32">
         <v>9</v>
       </c>
       <c r="Y5" s="32">
         <v>36.9</v>
       </c>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
       <c r="AD5" s="32">
         <v>7</v>
       </c>
@@ -3615,9 +3623,9 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="108"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="39">
         <v>5</v>
       </c>
@@ -3629,36 +3637,36 @@
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="96"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="97"/>
       <c r="L6" s="32">
         <v>17</v>
       </c>
       <c r="M6" s="32">
         <v>37.200000000000003</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="103"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="104"/>
       <c r="R6" s="32">
         <v>14</v>
       </c>
       <c r="S6" s="61">
         <v>36.9</v>
       </c>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
       <c r="X6" s="32">
         <v>10</v>
       </c>
       <c r="Y6" s="32">
         <v>37</v>
       </c>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
       <c r="AD6" s="32">
         <v>13</v>
       </c>
@@ -3667,9 +3675,9 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="108"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="108" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="109" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="39">
@@ -3683,36 +3691,36 @@
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="96"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="97"/>
       <c r="L7" s="32">
         <v>18</v>
       </c>
       <c r="M7" s="32">
         <v>37.299999999999997</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="103"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="104"/>
       <c r="R7" s="32">
         <v>15</v>
       </c>
       <c r="S7" s="61">
         <v>37</v>
       </c>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
       <c r="X7" s="32">
         <v>13</v>
       </c>
       <c r="Y7" s="32">
         <v>37.299999999999997</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="104"/>
       <c r="AD7" s="32">
         <v>17</v>
       </c>
@@ -3721,9 +3729,9 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="108"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="39">
         <v>2</v>
       </c>
@@ -3735,36 +3743,36 @@
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="96"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="97"/>
       <c r="L8" s="32">
         <v>19</v>
       </c>
       <c r="M8" s="32">
         <v>37.4</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="103"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="104"/>
       <c r="R8" s="32">
         <v>19</v>
       </c>
       <c r="S8" s="61">
         <v>37.200000000000003</v>
       </c>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="105"/>
       <c r="X8" s="32">
         <v>16</v>
       </c>
       <c r="Y8" s="32">
         <v>36.700000000000003</v>
       </c>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
       <c r="AD8" s="58">
         <v>21</v>
       </c>
@@ -3773,9 +3781,9 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="108"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="108" t="s">
+      <c r="A9" s="109"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="109" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="39">
@@ -3789,27 +3797,27 @@
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="96"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="32">
         <v>23</v>
       </c>
       <c r="M9" s="32">
         <v>36.6</v>
       </c>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="103"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="104"/>
       <c r="R9" s="58">
         <v>20</v>
       </c>
       <c r="S9" s="61">
         <v>37.299999999999997</v>
       </c>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="102" t="s">
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="103" t="s">
         <v>11</v>
       </c>
       <c r="X9" s="32">
@@ -3818,9 +3826,9 @@
       <c r="Y9" s="32">
         <v>1</v>
       </c>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
       <c r="AD9" s="58">
         <v>22</v>
       </c>
@@ -3829,9 +3837,9 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="39">
         <v>2</v>
       </c>
@@ -3843,36 +3851,36 @@
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="96"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="97"/>
       <c r="L10" s="58">
         <v>24</v>
       </c>
       <c r="M10" s="32">
         <v>36.700000000000003</v>
       </c>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="103"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="58">
         <v>21</v>
       </c>
       <c r="S10" s="61">
         <v>37.4</v>
       </c>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
       <c r="X10" s="32">
         <v>8</v>
       </c>
       <c r="Y10" s="32">
         <v>1</v>
       </c>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="105"/>
       <c r="AD10" s="58">
         <v>23</v>
       </c>
@@ -3881,9 +3889,9 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="39">
         <v>3</v>
       </c>
@@ -3895,9 +3903,9 @@
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="96" t="s">
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="97" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="32">
@@ -3906,27 +3914,27 @@
       <c r="M11" s="32">
         <v>0</v>
       </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="103"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="104"/>
       <c r="R11" s="58">
         <v>25</v>
       </c>
       <c r="S11" s="61">
         <v>36.4</v>
       </c>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
       <c r="X11" s="32">
         <v>11</v>
       </c>
       <c r="Y11" s="32">
         <v>0</v>
       </c>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="102" t="s">
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="103" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="32">
@@ -3937,9 +3945,9 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="39">
@@ -3953,36 +3961,36 @@
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="96"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="32">
         <v>7</v>
       </c>
       <c r="M12" s="32">
         <v>1</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="103"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="104"/>
       <c r="R12" s="32">
         <v>26</v>
       </c>
       <c r="S12" s="61">
         <v>36.5</v>
       </c>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="32">
         <v>18</v>
       </c>
       <c r="Y12" s="32">
         <v>3</v>
       </c>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
       <c r="AD12" s="32">
         <v>14</v>
       </c>
@@ -3991,9 +3999,9 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="39">
         <v>2</v>
       </c>
@@ -4005,27 +4013,27 @@
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="96"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="32">
         <v>15</v>
       </c>
       <c r="M13" s="32">
         <v>3</v>
       </c>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="104"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="105"/>
       <c r="R13" s="58">
         <v>27</v>
       </c>
       <c r="S13" s="61">
         <v>36.700000000000003</v>
       </c>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="102" t="s">
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="103" t="s">
         <v>13</v>
       </c>
       <c r="X13" s="32">
@@ -4034,9 +4042,9 @@
       <c r="Y13" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
       <c r="AD13" s="32">
         <v>18</v>
       </c>
@@ -4046,9 +4054,9 @@
       <c r="AI13" s="64"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="39">
         <v>3</v>
       </c>
@@ -4060,18 +4068,18 @@
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="96"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="97"/>
       <c r="L14" s="32">
         <v>16</v>
       </c>
       <c r="M14" s="32">
         <v>2</v>
       </c>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="102" t="s">
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="103" t="s">
         <v>11</v>
       </c>
       <c r="R14" s="32">
@@ -4080,18 +4088,18 @@
       <c r="S14" s="32">
         <v>1</v>
       </c>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
       <c r="X14" s="32">
         <v>5</v>
       </c>
       <c r="Y14" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
       <c r="AD14" s="32">
         <v>19</v>
       </c>
@@ -4100,9 +4108,9 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="39">
         <v>4</v>
       </c>
@@ -4114,36 +4122,36 @@
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="96"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="97"/>
       <c r="L15" s="32">
         <v>18</v>
       </c>
       <c r="M15" s="32">
         <v>3</v>
       </c>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="103"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="104"/>
       <c r="R15" s="32">
         <v>7</v>
       </c>
       <c r="S15" s="32">
         <v>1</v>
       </c>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
       <c r="X15" s="32">
         <v>15</v>
       </c>
       <c r="Y15" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="105"/>
       <c r="AD15" s="32">
         <v>24</v>
       </c>
@@ -4152,9 +4160,9 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="108" t="s">
+      <c r="A16" s="109"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="109" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="39">
@@ -4168,9 +4176,9 @@
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="96" t="s">
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="97" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="32">
@@ -4179,27 +4187,27 @@
       <c r="M16" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="103"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="104"/>
       <c r="R16" s="32">
         <v>10</v>
       </c>
       <c r="S16" s="32">
         <v>1</v>
       </c>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
       <c r="X16" s="32">
         <v>17</v>
       </c>
       <c r="Y16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="102" t="s">
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="103" t="s">
         <v>13</v>
       </c>
       <c r="AD16" s="32">
@@ -4210,9 +4218,9 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="39">
         <v>2</v>
       </c>
@@ -4224,36 +4232,36 @@
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="96"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="97"/>
       <c r="L17" s="32">
         <v>4</v>
       </c>
       <c r="M17" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="103"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="104"/>
       <c r="R17" s="32">
         <v>18</v>
       </c>
       <c r="S17" s="32">
         <v>2</v>
       </c>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
       <c r="X17" s="58">
         <v>22</v>
       </c>
       <c r="Y17" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
       <c r="AD17" s="32">
         <v>8</v>
       </c>
@@ -4262,9 +4270,9 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="108"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="39">
         <v>3</v>
       </c>
@@ -4276,36 +4284,36 @@
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="96"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="97"/>
       <c r="L18" s="32">
         <v>5</v>
       </c>
       <c r="M18" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="103"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="104"/>
       <c r="R18" s="32">
         <v>19</v>
       </c>
       <c r="S18" s="32">
         <v>2</v>
       </c>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="105"/>
       <c r="X18" s="58">
         <v>24</v>
       </c>
       <c r="Y18" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
       <c r="AD18" s="32">
         <v>1</v>
       </c>
@@ -4314,9 +4322,9 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="108"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="108" t="s">
+      <c r="A19" s="109"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="109" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="39">
@@ -4330,38 +4338,38 @@
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="96"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="97"/>
       <c r="L19" s="32">
         <v>7</v>
       </c>
       <c r="M19" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="104"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="105"/>
       <c r="R19" s="58">
         <v>20</v>
       </c>
       <c r="S19" s="32">
         <v>2</v>
       </c>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="98" t="s">
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="99" t="s">
         <v>14</v>
       </c>
       <c r="X19" s="32">
         <v>5</v>
       </c>
       <c r="Y19" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
+        <v>87</v>
+      </c>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
       <c r="AD19" s="32">
         <v>14</v>
       </c>
@@ -4370,9 +4378,9 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="109"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="40">
         <v>2</v>
       </c>
@@ -4384,18 +4392,18 @@
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="96"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="97"/>
       <c r="L20" s="32">
         <v>10</v>
       </c>
       <c r="M20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="102" t="s">
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="103" t="s">
         <v>13</v>
       </c>
       <c r="R20" s="32">
@@ -4404,18 +4412,18 @@
       <c r="S20" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="99"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="100"/>
       <c r="X20" s="32">
         <v>9</v>
       </c>
       <c r="Y20" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="104"/>
+        <v>86</v>
+      </c>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="105"/>
       <c r="AD20" s="32">
         <v>19</v>
       </c>
@@ -4424,13 +4432,13 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="110" t="s">
+      <c r="B21" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="111" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="41">
@@ -4444,9 +4452,9 @@
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="96"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="97"/>
       <c r="L21" s="32">
         <v>15</v>
       </c>
@@ -4454,40 +4462,40 @@
         <v>77</v>
       </c>
       <c r="N21" s="60"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="103"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="104"/>
       <c r="R21" s="58">
         <v>2</v>
       </c>
       <c r="S21" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="99"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="100"/>
       <c r="X21" s="32">
         <v>11</v>
       </c>
       <c r="Y21" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="99" t="s">
         <v>14</v>
       </c>
       <c r="AD21" s="32">
         <v>4</v>
       </c>
       <c r="AE21" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="37">
         <v>2</v>
       </c>
@@ -4499,47 +4507,47 @@
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="96"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="97"/>
       <c r="L22" s="32">
         <v>22</v>
       </c>
       <c r="M22" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="103"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="104"/>
       <c r="R22" s="32">
         <v>3</v>
       </c>
       <c r="S22" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="99"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="100"/>
       <c r="X22" s="32">
         <v>16</v>
       </c>
       <c r="Y22" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="99"/>
+        <v>85</v>
+      </c>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="100"/>
       <c r="AD22" s="32">
         <v>8</v>
       </c>
       <c r="AE22" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="108"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="37">
         <v>3</v>
       </c>
@@ -4551,47 +4559,47 @@
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="96"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="97"/>
       <c r="L23" s="58">
         <v>24</v>
       </c>
       <c r="M23" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="103"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="104"/>
       <c r="R23" s="32">
         <v>10</v>
       </c>
       <c r="S23" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="99"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="100"/>
       <c r="X23" s="32">
         <v>17</v>
       </c>
       <c r="Y23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="99"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="100"/>
       <c r="AD23" s="32">
         <v>9</v>
       </c>
       <c r="AE23" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="108"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="37">
         <v>4</v>
       </c>
@@ -4603,49 +4611,49 @@
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="97" t="s">
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="98" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="32">
         <v>4</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="103"/>
+        <v>85</v>
+      </c>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="104"/>
       <c r="R24" s="32">
         <v>14</v>
       </c>
       <c r="S24" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="99"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="100"/>
       <c r="X24" s="32">
         <v>18</v>
       </c>
       <c r="Y24" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="99"/>
+        <v>85</v>
+      </c>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="100"/>
       <c r="AD24" s="32">
         <v>10</v>
       </c>
       <c r="AE24" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="108"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="39">
         <v>5</v>
       </c>
@@ -4657,36 +4665,36 @@
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="97"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="98"/>
       <c r="L25" s="32">
         <v>9</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="103"/>
+        <v>86</v>
+      </c>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="104"/>
       <c r="R25" s="32">
         <v>18</v>
       </c>
       <c r="S25" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="99"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="100"/>
       <c r="X25" s="32">
         <v>19</v>
       </c>
       <c r="Y25" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="99"/>
+        <v>86</v>
+      </c>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="100"/>
       <c r="AD25" s="32">
         <v>15</v>
       </c>
@@ -4695,9 +4703,9 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="108"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="108" t="s">
+      <c r="A26" s="109"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="109" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="39">
@@ -4711,36 +4719,36 @@
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="97"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="98"/>
       <c r="L26" s="32">
         <v>15</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="103"/>
+        <v>85</v>
+      </c>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="104"/>
       <c r="R26" s="32">
         <v>19</v>
       </c>
       <c r="S26" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="99"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="100"/>
       <c r="X26" s="58">
         <v>20</v>
       </c>
       <c r="Y26" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="99"/>
+        <v>88</v>
+      </c>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="100"/>
       <c r="AD26" s="32">
         <v>16</v>
       </c>
@@ -4749,9 +4757,9 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="108"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="108"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="39">
         <v>2</v>
       </c>
@@ -4763,47 +4771,47 @@
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="97"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="98"/>
       <c r="L27" s="32">
         <v>18</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="104"/>
+        <v>87</v>
+      </c>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="105"/>
       <c r="R27" s="58">
         <v>20</v>
       </c>
       <c r="S27" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="100"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="101"/>
       <c r="X27" s="32">
         <v>21</v>
       </c>
       <c r="Y27" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="99"/>
+        <v>88</v>
+      </c>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="100"/>
       <c r="AD27" s="32">
         <v>17</v>
       </c>
       <c r="AE27" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="108"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="108" t="s">
+      <c r="A28" s="109"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="109" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="39">
@@ -4817,29 +4825,29 @@
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="97"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="98"/>
       <c r="L28" s="32">
         <v>19</v>
       </c>
       <c r="M28" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="32">
+        <v>3</v>
+      </c>
+      <c r="S28" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="32">
-        <v>3</v>
-      </c>
-      <c r="S28" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="98" t="s">
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="99" t="s">
         <v>15</v>
       </c>
       <c r="X28" s="32">
@@ -4848,20 +4856,20 @@
       <c r="Y28" s="50">
         <v>120</v>
       </c>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="99"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="100"/>
       <c r="AD28" s="32">
         <v>19</v>
       </c>
       <c r="AE28" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="108"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="39">
         <v>2</v>
       </c>
@@ -4873,47 +4881,47 @@
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="97"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="98"/>
       <c r="L29" s="32">
         <v>21</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="99"/>
+        <v>88</v>
+      </c>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="100"/>
       <c r="R29" s="32">
         <v>7</v>
       </c>
       <c r="S29" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="99"/>
+        <v>88</v>
+      </c>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="100"/>
       <c r="X29" s="32">
         <v>5</v>
       </c>
       <c r="Y29" s="50">
         <v>112</v>
       </c>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="100"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="101"/>
       <c r="AD29" s="58">
         <v>22</v>
       </c>
       <c r="AE29" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A30" s="108"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="108"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="39">
         <v>3</v>
       </c>
@@ -4925,9 +4933,9 @@
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="97" t="s">
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="98" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="32">
@@ -4936,27 +4944,27 @@
       <c r="M30" s="50">
         <v>112</v>
       </c>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="99"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="100"/>
       <c r="R30" s="32">
         <v>14</v>
       </c>
       <c r="S30" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="99"/>
+        <v>85</v>
+      </c>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="100"/>
       <c r="X30" s="32">
         <v>7</v>
       </c>
       <c r="Y30" s="50">
         <v>150</v>
       </c>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="98" t="s">
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="99" t="s">
         <v>15</v>
       </c>
       <c r="AD30" s="32">
@@ -4967,9 +4975,9 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="108"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="39">
@@ -4983,36 +4991,36 @@
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="98"/>
       <c r="L31" s="32">
         <v>8</v>
       </c>
       <c r="M31" s="50">
         <v>150</v>
       </c>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="99"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="100"/>
       <c r="R31" s="32">
         <v>15</v>
       </c>
       <c r="S31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="99"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="100"/>
       <c r="X31" s="32">
         <v>8</v>
       </c>
       <c r="Y31" s="50">
         <v>157</v>
       </c>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="99"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="100"/>
       <c r="AD31" s="32">
         <v>8</v>
       </c>
@@ -5021,9 +5029,9 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="108"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="39">
         <v>2</v>
       </c>
@@ -5035,36 +5043,36 @@
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="97"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="98"/>
       <c r="L32" s="32">
         <v>9</v>
       </c>
       <c r="M32" s="50">
         <v>150</v>
       </c>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="99"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="100"/>
       <c r="R32" s="32">
         <v>18</v>
       </c>
       <c r="S32" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="99"/>
+        <v>88</v>
+      </c>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="100"/>
       <c r="X32" s="32">
         <v>9</v>
       </c>
       <c r="Y32" s="50">
         <v>160</v>
       </c>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="99"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="100"/>
       <c r="AD32" s="32">
         <v>13</v>
       </c>
@@ -5073,9 +5081,9 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="108"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="39">
         <v>3</v>
       </c>
@@ -5087,36 +5095,36 @@
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="97"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="98"/>
       <c r="L33" s="32">
         <v>11</v>
       </c>
       <c r="M33" s="50">
         <v>150</v>
       </c>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="99"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="100"/>
       <c r="R33" s="32">
         <v>19</v>
       </c>
       <c r="S33" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="99"/>
+        <v>87</v>
+      </c>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="100"/>
       <c r="X33" s="32">
         <v>19</v>
       </c>
       <c r="Y33" s="50">
         <v>139</v>
       </c>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="99"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="100"/>
       <c r="AD33" s="32">
         <v>16</v>
       </c>
@@ -5125,9 +5133,9 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A34" s="108"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="39">
         <v>4</v>
       </c>
@@ -5139,36 +5147,36 @@
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="97"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="98"/>
       <c r="L34" s="32">
         <v>17</v>
       </c>
       <c r="M34" s="50">
         <v>125</v>
       </c>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="100"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="101"/>
       <c r="R34" s="58">
         <v>21</v>
       </c>
       <c r="S34" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="99"/>
+        <v>88</v>
+      </c>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="100"/>
       <c r="X34" s="58">
         <v>21</v>
       </c>
       <c r="Y34" s="50">
         <v>125</v>
       </c>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="99"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="100"/>
       <c r="AD34" s="32">
         <v>19</v>
       </c>
@@ -5177,9 +5185,9 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A35" s="108"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="108" t="s">
+      <c r="A35" s="109"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="109" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="39">
@@ -5193,18 +5201,18 @@
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="97"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="98"/>
       <c r="L35" s="32">
         <v>18</v>
       </c>
       <c r="M35" s="50">
         <v>117</v>
       </c>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="98" t="s">
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="99" t="s">
         <v>15</v>
       </c>
       <c r="R35" s="32">
@@ -5213,18 +5221,18 @@
       <c r="S35" s="50">
         <v>120</v>
       </c>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="100"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="101"/>
       <c r="X35" s="58">
         <v>23</v>
       </c>
       <c r="Y35" s="50">
         <v>117</v>
       </c>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="99"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="100"/>
       <c r="AD35" s="58">
         <v>22</v>
       </c>
@@ -5233,9 +5241,9 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A36" s="108"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="108"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="39">
         <v>2</v>
       </c>
@@ -5247,38 +5255,38 @@
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="97"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="98"/>
       <c r="L36" s="32">
         <v>19</v>
       </c>
       <c r="M36" s="50">
         <v>117</v>
       </c>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="99"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="100"/>
       <c r="R36" s="32">
         <v>3</v>
       </c>
       <c r="S36" s="50">
         <v>120</v>
       </c>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="98" t="s">
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="99" t="s">
         <v>17</v>
       </c>
       <c r="X36" s="32">
         <v>1</v>
       </c>
       <c r="Y36" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="99"/>
+        <v>93</v>
+      </c>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="100"/>
       <c r="AD36" s="59">
         <v>23</v>
       </c>
@@ -5287,9 +5295,9 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A37" s="108"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="39">
         <v>3</v>
       </c>
@@ -5301,9 +5309,9 @@
       </c>
       <c r="G37" s="33"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="97" t="s">
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="98" t="s">
         <v>17</v>
       </c>
       <c r="L37" s="32">
@@ -5312,40 +5320,40 @@
       <c r="M37" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="99"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="100"/>
       <c r="R37" s="32">
         <v>4</v>
       </c>
       <c r="S37" s="50">
         <v>143</v>
       </c>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="99"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="104"/>
+      <c r="W37" s="100"/>
       <c r="X37" s="58">
         <v>2</v>
       </c>
       <c r="Y37" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA37" s="104"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="98" t="s">
         <v>17</v>
       </c>
       <c r="AD37" s="32">
         <v>1</v>
       </c>
       <c r="AE37" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="108"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="108" t="s">
+      <c r="A38" s="109"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="109" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="39">
@@ -5359,47 +5367,47 @@
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="97"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="98"/>
       <c r="L38" s="32">
         <v>15</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="99"/>
+        <v>91</v>
+      </c>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="100"/>
       <c r="R38" s="32">
         <v>9</v>
       </c>
       <c r="S38" s="50">
         <v>160</v>
       </c>
-      <c r="U38" s="103"/>
-      <c r="V38" s="103"/>
-      <c r="W38" s="99"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="100"/>
       <c r="X38" s="32">
         <v>16</v>
       </c>
       <c r="Y38" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA38" s="103"/>
-      <c r="AB38" s="103"/>
-      <c r="AC38" s="97"/>
+        <v>94</v>
+      </c>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="98"/>
       <c r="AD38" s="32">
         <v>14</v>
       </c>
       <c r="AE38" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="109"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="109"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="40">
         <v>2</v>
       </c>
@@ -5411,51 +5419,51 @@
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="97"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="32">
         <v>18</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="99"/>
+        <v>91</v>
+      </c>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="100"/>
       <c r="R39" s="32">
         <v>10</v>
       </c>
       <c r="S39" s="50">
         <v>160</v>
       </c>
-      <c r="U39" s="104"/>
-      <c r="V39" s="104"/>
-      <c r="W39" s="100"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="101"/>
       <c r="X39" s="32">
         <v>18</v>
       </c>
       <c r="Y39" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA39" s="104"/>
-      <c r="AB39" s="104"/>
-      <c r="AC39" s="97"/>
+        <v>94</v>
+      </c>
+      <c r="AA39" s="105"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="98"/>
       <c r="AD39" s="32">
         <v>19</v>
       </c>
       <c r="AE39" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="110" t="s">
+      <c r="B40" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="111" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="41">
@@ -5469,9 +5477,9 @@
       </c>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="99"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="100"/>
       <c r="R40" s="32">
         <v>14</v>
       </c>
@@ -5480,9 +5488,9 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A41" s="108"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="37">
         <v>2</v>
       </c>
@@ -5494,9 +5502,9 @@
       </c>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="100"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="101"/>
       <c r="R41" s="32">
         <v>19</v>
       </c>
@@ -5505,9 +5513,9 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A42" s="108"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="108"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="37">
         <v>3</v>
       </c>
@@ -5519,22 +5527,22 @@
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="98" t="s">
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="99" t="s">
         <v>17</v>
       </c>
       <c r="R42" s="32">
         <v>1</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A43" s="108"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="108"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="37">
         <v>4</v>
       </c>
@@ -5546,9 +5554,9 @@
       </c>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="99"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="100"/>
       <c r="R43" s="32">
         <v>3</v>
       </c>
@@ -5557,9 +5565,9 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A44" s="108"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="39">
         <v>5</v>
       </c>
@@ -5571,20 +5579,20 @@
       </c>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="100"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="101"/>
       <c r="R44" s="32">
         <v>17</v>
       </c>
       <c r="S44" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A45" s="108"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="108" t="s">
+      <c r="A45" s="109"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="109" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="39">
@@ -5600,9 +5608,9 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A46" s="108"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="108"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="39">
         <v>2</v>
       </c>
@@ -5616,9 +5624,9 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A47" s="108"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="108" t="s">
+      <c r="A47" s="109"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="109" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="39">
@@ -5634,9 +5642,9 @@
       <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A48" s="108"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="108"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="39">
         <v>2</v>
       </c>
@@ -5650,9 +5658,9 @@
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A49" s="108"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="108"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="39">
         <v>3</v>
       </c>
@@ -5666,9 +5674,9 @@
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A50" s="108"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126" t="s">
+      <c r="A50" s="109"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="39">
@@ -5684,9 +5692,9 @@
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A51" s="108"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="39">
         <v>2</v>
       </c>
@@ -5700,9 +5708,9 @@
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A52" s="108"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="127"/>
       <c r="D52" s="39">
         <v>3</v>
       </c>
@@ -5714,39 +5722,39 @@
       </c>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="131" t="s">
+      <c r="I52" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="133"/>
-      <c r="O52" s="131" t="s">
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="134"/>
+      <c r="O52" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="P52" s="132"/>
-      <c r="Q52" s="132"/>
-      <c r="R52" s="132"/>
-      <c r="S52" s="133"/>
-      <c r="U52" s="131" t="s">
+      <c r="P52" s="133"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="133"/>
+      <c r="S52" s="134"/>
+      <c r="U52" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="V52" s="132"/>
-      <c r="W52" s="132"/>
-      <c r="X52" s="132"/>
-      <c r="Y52" s="133"/>
-      <c r="AA52" s="131" t="s">
+      <c r="V52" s="133"/>
+      <c r="W52" s="133"/>
+      <c r="X52" s="133"/>
+      <c r="Y52" s="134"/>
+      <c r="AA52" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="AB52" s="132"/>
-      <c r="AC52" s="132"/>
-      <c r="AD52" s="132"/>
-      <c r="AE52" s="133"/>
+      <c r="AB52" s="133"/>
+      <c r="AC52" s="133"/>
+      <c r="AD52" s="133"/>
+      <c r="AE52" s="134"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A53" s="108"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="39">
         <v>4</v>
       </c>
@@ -5758,13 +5766,13 @@
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="103" t="s">
+      <c r="I53" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="J53" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="102" t="s">
+      <c r="J53" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="103" t="s">
         <v>7</v>
       </c>
       <c r="L53" s="32">
@@ -5773,13 +5781,13 @@
       <c r="M53" s="32">
         <v>37.9</v>
       </c>
-      <c r="O53" s="102" t="s">
+      <c r="O53" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="P53" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="102" t="s">
+      <c r="P53" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="103" t="s">
         <v>7</v>
       </c>
       <c r="R53" s="32">
@@ -5788,13 +5796,13 @@
       <c r="S53" s="32">
         <v>38.1</v>
       </c>
-      <c r="U53" s="96" t="s">
+      <c r="U53" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="V53" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="W53" s="96" t="s">
+      <c r="V53" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="W53" s="97" t="s">
         <v>7</v>
       </c>
       <c r="X53" s="32">
@@ -5803,13 +5811,13 @@
       <c r="Y53" s="32">
         <v>37.9</v>
       </c>
-      <c r="AA53" s="96" t="s">
+      <c r="AA53" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="AB53" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC53" s="96" t="s">
+      <c r="AB53" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC53" s="97" t="s">
         <v>7</v>
       </c>
       <c r="AD53" s="32">
@@ -5820,9 +5828,9 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A54" s="108"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="108" t="s">
+      <c r="A54" s="109"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="109" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="39">
@@ -5836,36 +5844,36 @@
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
       <c r="L54" s="58">
         <v>2</v>
       </c>
       <c r="M54" s="32">
         <v>38.1</v>
       </c>
-      <c r="O54" s="103"/>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="103"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
       <c r="R54" s="58">
         <v>2</v>
       </c>
       <c r="S54" s="32">
         <v>38.200000000000003</v>
       </c>
-      <c r="U54" s="96"/>
-      <c r="V54" s="96"/>
-      <c r="W54" s="96"/>
+      <c r="U54" s="97"/>
+      <c r="V54" s="97"/>
+      <c r="W54" s="97"/>
       <c r="X54" s="58">
         <v>2</v>
       </c>
       <c r="Y54" s="32">
         <v>38.1</v>
       </c>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="96"/>
-      <c r="AC54" s="96"/>
+      <c r="AA54" s="97"/>
+      <c r="AB54" s="97"/>
+      <c r="AC54" s="97"/>
       <c r="AD54" s="58">
         <v>2</v>
       </c>
@@ -5874,9 +5882,9 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A55" s="108"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="108"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="39">
         <v>2</v>
       </c>
@@ -5888,36 +5896,36 @@
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
       <c r="L55" s="32">
         <v>3</v>
       </c>
       <c r="M55" s="32">
         <v>38</v>
       </c>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="103"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
       <c r="R55" s="32">
         <v>6</v>
       </c>
       <c r="S55" s="32">
         <v>38.799999999999997</v>
       </c>
-      <c r="U55" s="96"/>
-      <c r="V55" s="96"/>
-      <c r="W55" s="96"/>
+      <c r="U55" s="97"/>
+      <c r="V55" s="97"/>
+      <c r="W55" s="97"/>
       <c r="X55" s="32">
         <v>3</v>
       </c>
       <c r="Y55" s="32">
         <v>38.200000000000003</v>
       </c>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="97"/>
+      <c r="AC55" s="97"/>
       <c r="AD55" s="32">
         <v>5</v>
       </c>
@@ -5926,9 +5934,9 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A56" s="108"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="108"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="39">
         <v>3</v>
       </c>
@@ -5940,36 +5948,36 @@
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
       <c r="L56" s="32">
         <v>6</v>
       </c>
       <c r="M56" s="32">
         <v>38.799999999999997</v>
       </c>
-      <c r="O56" s="103"/>
-      <c r="P56" s="103"/>
-      <c r="Q56" s="103"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
       <c r="R56" s="32">
         <v>10</v>
       </c>
       <c r="S56" s="32">
         <v>39</v>
       </c>
-      <c r="U56" s="96"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="96"/>
+      <c r="U56" s="97"/>
+      <c r="V56" s="97"/>
+      <c r="W56" s="97"/>
       <c r="X56" s="32">
         <v>5</v>
       </c>
       <c r="Y56" s="32">
         <v>38.799999999999997</v>
       </c>
-      <c r="AA56" s="96"/>
-      <c r="AB56" s="96"/>
-      <c r="AC56" s="96"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="97"/>
+      <c r="AC56" s="97"/>
       <c r="AD56" s="32">
         <v>6</v>
       </c>
@@ -5978,9 +5986,9 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A57" s="108"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="108" t="s">
+      <c r="A57" s="109"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="109" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="39">
@@ -5994,36 +6002,36 @@
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="34"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
       <c r="L57" s="32">
         <v>10</v>
       </c>
       <c r="M57" s="32">
         <v>39</v>
       </c>
-      <c r="O57" s="103"/>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="103"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
       <c r="R57" s="32">
         <v>11</v>
       </c>
       <c r="S57" s="32">
         <v>39</v>
       </c>
-      <c r="U57" s="96"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
+      <c r="U57" s="97"/>
+      <c r="V57" s="97"/>
+      <c r="W57" s="97"/>
       <c r="X57" s="32">
         <v>7</v>
       </c>
       <c r="Y57" s="32">
         <v>38.9</v>
       </c>
-      <c r="AA57" s="96"/>
-      <c r="AB57" s="96"/>
-      <c r="AC57" s="96"/>
+      <c r="AA57" s="97"/>
+      <c r="AB57" s="97"/>
+      <c r="AC57" s="97"/>
       <c r="AD57" s="32">
         <v>9</v>
       </c>
@@ -6032,9 +6040,9 @@
       </c>
     </row>
     <row r="58" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="109"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="109"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="40">
         <v>2</v>
       </c>
@@ -6046,36 +6054,36 @@
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
       <c r="L58" s="32">
         <v>11</v>
       </c>
       <c r="M58" s="32">
         <v>39</v>
       </c>
-      <c r="O58" s="103"/>
-      <c r="P58" s="103"/>
-      <c r="Q58" s="103"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
       <c r="R58" s="32">
         <v>17</v>
       </c>
       <c r="S58" s="32">
         <v>39.700000000000003</v>
       </c>
-      <c r="U58" s="96"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="U58" s="97"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
       <c r="X58" s="32">
         <v>9</v>
       </c>
       <c r="Y58" s="32">
         <v>39</v>
       </c>
-      <c r="AA58" s="96"/>
-      <c r="AB58" s="96"/>
-      <c r="AC58" s="96"/>
+      <c r="AA58" s="97"/>
+      <c r="AB58" s="97"/>
+      <c r="AC58" s="97"/>
       <c r="AD58" s="32">
         <v>16</v>
       </c>
@@ -6084,13 +6092,13 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="110" t="s">
+      <c r="B59" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="111" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="41">
@@ -6104,36 +6112,36 @@
       </c>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="105"/>
       <c r="L59" s="32">
         <v>16</v>
       </c>
       <c r="M59" s="32">
         <v>39.700000000000003</v>
       </c>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="103"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="104"/>
       <c r="R59" s="32">
         <v>18</v>
       </c>
       <c r="S59" s="32">
         <v>39.799999999999997</v>
       </c>
-      <c r="U59" s="96"/>
-      <c r="V59" s="96"/>
-      <c r="W59" s="96"/>
+      <c r="U59" s="97"/>
+      <c r="V59" s="97"/>
+      <c r="W59" s="97"/>
       <c r="X59" s="32">
         <v>10</v>
       </c>
       <c r="Y59" s="32">
         <v>39</v>
       </c>
-      <c r="AA59" s="96"/>
-      <c r="AB59" s="96"/>
-      <c r="AC59" s="96"/>
+      <c r="AA59" s="97"/>
+      <c r="AB59" s="97"/>
+      <c r="AC59" s="97"/>
       <c r="AD59" s="32">
         <v>17</v>
       </c>
@@ -6142,9 +6150,9 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A60" s="108"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="108"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="37">
         <v>2</v>
       </c>
@@ -6156,9 +6164,9 @@
       </c>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="102" t="s">
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="103" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="32">
@@ -6167,27 +6175,27 @@
       <c r="M60" s="32">
         <v>3</v>
       </c>
-      <c r="O60" s="103"/>
-      <c r="P60" s="103"/>
-      <c r="Q60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="105"/>
       <c r="R60" s="32">
         <v>19</v>
       </c>
       <c r="S60" s="32">
         <v>39.9</v>
       </c>
-      <c r="U60" s="96"/>
-      <c r="V60" s="96"/>
-      <c r="W60" s="96"/>
+      <c r="U60" s="97"/>
+      <c r="V60" s="97"/>
+      <c r="W60" s="97"/>
       <c r="X60" s="32">
         <v>11</v>
       </c>
       <c r="Y60" s="32">
         <v>39</v>
       </c>
-      <c r="AA60" s="96"/>
-      <c r="AB60" s="96"/>
-      <c r="AC60" s="96"/>
+      <c r="AA60" s="97"/>
+      <c r="AB60" s="97"/>
+      <c r="AC60" s="97"/>
       <c r="AD60" s="32">
         <v>19</v>
       </c>
@@ -6196,9 +6204,9 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A61" s="108"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="108"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="37">
         <v>3</v>
       </c>
@@ -6210,18 +6218,18 @@
       </c>
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
       <c r="L61" s="32">
         <v>7</v>
       </c>
       <c r="M61" s="32">
         <v>4</v>
       </c>
-      <c r="O61" s="103"/>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="102" t="s">
+      <c r="O61" s="104"/>
+      <c r="P61" s="104"/>
+      <c r="Q61" s="103" t="s">
         <v>11</v>
       </c>
       <c r="R61" s="32">
@@ -6230,18 +6238,18 @@
       <c r="S61" s="32">
         <v>3</v>
       </c>
-      <c r="U61" s="96"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="96"/>
+      <c r="U61" s="97"/>
+      <c r="V61" s="97"/>
+      <c r="W61" s="97"/>
       <c r="X61" s="32">
         <v>17</v>
       </c>
       <c r="Y61" s="32">
         <v>39.799999999999997</v>
       </c>
-      <c r="AA61" s="96"/>
-      <c r="AB61" s="96"/>
-      <c r="AC61" s="96" t="s">
+      <c r="AA61" s="97"/>
+      <c r="AB61" s="97"/>
+      <c r="AC61" s="97" t="s">
         <v>11</v>
       </c>
       <c r="AD61" s="32">
@@ -6252,9 +6260,9 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A62" s="108"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="108"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="109"/>
       <c r="D62" s="37">
         <v>4</v>
       </c>
@@ -6266,36 +6274,36 @@
       </c>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
       <c r="L62" s="32">
         <v>11</v>
       </c>
       <c r="M62" s="32">
         <v>6</v>
       </c>
-      <c r="O62" s="103"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="103"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
       <c r="R62" s="32">
         <v>4</v>
       </c>
       <c r="S62" s="32">
         <v>4</v>
       </c>
-      <c r="U62" s="96"/>
-      <c r="V62" s="96"/>
-      <c r="W62" s="96"/>
+      <c r="U62" s="97"/>
+      <c r="V62" s="97"/>
+      <c r="W62" s="97"/>
       <c r="X62" s="32">
         <v>19</v>
       </c>
       <c r="Y62" s="32">
         <v>39.9</v>
       </c>
-      <c r="AA62" s="96"/>
-      <c r="AB62" s="96"/>
-      <c r="AC62" s="96"/>
+      <c r="AA62" s="97"/>
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="97"/>
       <c r="AD62" s="32">
         <v>10</v>
       </c>
@@ -6304,9 +6312,9 @@
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A63" s="108"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="108"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="109"/>
       <c r="D63" s="39">
         <v>5</v>
       </c>
@@ -6318,27 +6326,27 @@
       </c>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
       <c r="L63" s="32">
         <v>13</v>
       </c>
       <c r="M63" s="32">
         <v>7</v>
       </c>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="103"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
       <c r="R63" s="32">
         <v>5</v>
       </c>
       <c r="S63" s="32">
         <v>5</v>
       </c>
-      <c r="U63" s="96"/>
-      <c r="V63" s="96"/>
-      <c r="W63" s="96" t="s">
+      <c r="U63" s="97"/>
+      <c r="V63" s="97"/>
+      <c r="W63" s="97" t="s">
         <v>11</v>
       </c>
       <c r="X63" s="32">
@@ -6347,9 +6355,9 @@
       <c r="Y63" s="32">
         <v>4</v>
       </c>
-      <c r="AA63" s="96"/>
-      <c r="AB63" s="96"/>
-      <c r="AC63" s="96"/>
+      <c r="AA63" s="97"/>
+      <c r="AB63" s="97"/>
+      <c r="AC63" s="97"/>
       <c r="AD63" s="32">
         <v>17</v>
       </c>
@@ -6358,9 +6366,9 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A64" s="108"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="108" t="s">
+      <c r="A64" s="109"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="109" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="39">
@@ -6374,36 +6382,36 @@
       </c>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
       <c r="L64" s="32">
         <v>16</v>
       </c>
       <c r="M64" s="32">
         <v>8</v>
       </c>
-      <c r="O64" s="103"/>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="103"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
       <c r="R64" s="32">
         <v>9</v>
       </c>
       <c r="S64" s="32">
         <v>6</v>
       </c>
-      <c r="U64" s="96"/>
-      <c r="V64" s="96"/>
-      <c r="W64" s="96"/>
+      <c r="U64" s="97"/>
+      <c r="V64" s="97"/>
+      <c r="W64" s="97"/>
       <c r="X64" s="32">
         <v>8</v>
       </c>
       <c r="Y64" s="32">
         <v>6</v>
       </c>
-      <c r="AA64" s="96"/>
-      <c r="AB64" s="96"/>
-      <c r="AC64" s="96"/>
+      <c r="AA64" s="97"/>
+      <c r="AB64" s="97"/>
+      <c r="AC64" s="97"/>
       <c r="AD64" s="32">
         <v>18</v>
       </c>
@@ -6412,9 +6420,9 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A65" s="108"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="108"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="39">
         <v>2</v>
       </c>
@@ -6426,36 +6434,36 @@
       </c>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
       <c r="L65" s="32">
         <v>17</v>
       </c>
       <c r="M65" s="32">
         <v>8</v>
       </c>
-      <c r="O65" s="103"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="103"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
       <c r="R65" s="32">
         <v>14</v>
       </c>
       <c r="S65" s="32">
         <v>8</v>
       </c>
-      <c r="U65" s="96"/>
-      <c r="V65" s="96"/>
-      <c r="W65" s="96"/>
+      <c r="U65" s="97"/>
+      <c r="V65" s="97"/>
+      <c r="W65" s="97"/>
       <c r="X65" s="32">
         <v>9</v>
       </c>
       <c r="Y65" s="32">
         <v>5</v>
       </c>
-      <c r="AA65" s="96"/>
-      <c r="AB65" s="96"/>
-      <c r="AC65" s="96"/>
+      <c r="AA65" s="97"/>
+      <c r="AB65" s="97"/>
+      <c r="AC65" s="97"/>
       <c r="AD65" s="32">
         <v>19</v>
       </c>
@@ -6464,9 +6472,9 @@
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A66" s="108"/>
-      <c r="B66" s="126"/>
-      <c r="C66" s="108" t="s">
+      <c r="A66" s="109"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="109" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="39">
@@ -6480,36 +6488,36 @@
       </c>
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="105"/>
       <c r="L66" s="32">
         <v>19</v>
       </c>
       <c r="M66" s="32">
         <v>9</v>
       </c>
-      <c r="O66" s="103"/>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="103"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
       <c r="R66" s="32">
         <v>15</v>
       </c>
       <c r="S66" s="32">
         <v>8</v>
       </c>
-      <c r="U66" s="96"/>
-      <c r="V66" s="96"/>
-      <c r="W66" s="96"/>
+      <c r="U66" s="97"/>
+      <c r="V66" s="97"/>
+      <c r="W66" s="97"/>
       <c r="X66" s="32">
         <v>11</v>
       </c>
       <c r="Y66" s="32">
         <v>7</v>
       </c>
-      <c r="AA66" s="96"/>
-      <c r="AB66" s="96"/>
-      <c r="AC66" s="96" t="s">
+      <c r="AA66" s="97"/>
+      <c r="AB66" s="97"/>
+      <c r="AC66" s="97" t="s">
         <v>13</v>
       </c>
       <c r="AD66" s="58">
@@ -6520,9 +6528,9 @@
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A67" s="108"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="108"/>
+      <c r="A67" s="109"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="109"/>
       <c r="D67" s="39">
         <v>2</v>
       </c>
@@ -6534,9 +6542,9 @@
       </c>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="103"/>
-      <c r="K67" s="102" t="s">
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="103" t="s">
         <v>13</v>
       </c>
       <c r="L67" s="32">
@@ -6545,27 +6553,27 @@
       <c r="M67" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="O67" s="103"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="105"/>
       <c r="R67" s="32">
         <v>17</v>
       </c>
       <c r="S67" s="32">
         <v>8</v>
       </c>
-      <c r="U67" s="96"/>
-      <c r="V67" s="96"/>
-      <c r="W67" s="96"/>
+      <c r="U67" s="97"/>
+      <c r="V67" s="97"/>
+      <c r="W67" s="97"/>
       <c r="X67" s="32">
         <v>17</v>
       </c>
       <c r="Y67" s="32">
         <v>8</v>
       </c>
-      <c r="AA67" s="96"/>
-      <c r="AB67" s="96"/>
-      <c r="AC67" s="96"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="97"/>
       <c r="AD67" s="32">
         <v>3</v>
       </c>
@@ -6574,9 +6582,9 @@
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A68" s="108"/>
-      <c r="B68" s="126"/>
-      <c r="C68" s="108"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="109"/>
       <c r="D68" s="39">
         <v>3</v>
       </c>
@@ -6588,18 +6596,18 @@
       </c>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="103"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
       <c r="L68" s="58">
         <v>2</v>
       </c>
       <c r="M68" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="O68" s="103"/>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="102" t="s">
+      <c r="O68" s="104"/>
+      <c r="P68" s="104"/>
+      <c r="Q68" s="103" t="s">
         <v>13</v>
       </c>
       <c r="R68" s="32">
@@ -6608,9 +6616,9 @@
       <c r="S68" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="U68" s="96"/>
-      <c r="V68" s="96"/>
-      <c r="W68" s="96" t="s">
+      <c r="U68" s="97"/>
+      <c r="V68" s="97"/>
+      <c r="W68" s="97" t="s">
         <v>13</v>
       </c>
       <c r="X68" s="32">
@@ -6619,9 +6627,9 @@
       <c r="Y68" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="AA68" s="96"/>
-      <c r="AB68" s="96"/>
-      <c r="AC68" s="96"/>
+      <c r="AA68" s="97"/>
+      <c r="AB68" s="97"/>
+      <c r="AC68" s="97"/>
       <c r="AD68" s="32">
         <v>4</v>
       </c>
@@ -6630,9 +6638,9 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A69" s="108"/>
-      <c r="B69" s="126"/>
-      <c r="C69" s="126" t="s">
+      <c r="A69" s="109"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="127" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="39">
@@ -6646,36 +6654,36 @@
       </c>
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
-      <c r="I69" s="103"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="103"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
       <c r="L69" s="32">
         <v>3</v>
       </c>
       <c r="M69" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="O69" s="103"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="103"/>
+      <c r="O69" s="104"/>
+      <c r="P69" s="104"/>
+      <c r="Q69" s="104"/>
       <c r="R69" s="58">
         <v>2</v>
       </c>
       <c r="S69" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="U69" s="96"/>
-      <c r="V69" s="96"/>
-      <c r="W69" s="96"/>
+      <c r="U69" s="97"/>
+      <c r="V69" s="97"/>
+      <c r="W69" s="97"/>
       <c r="X69" s="32">
         <v>5</v>
       </c>
       <c r="Y69" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AA69" s="96"/>
-      <c r="AB69" s="96"/>
-      <c r="AC69" s="96"/>
+      <c r="AA69" s="97"/>
+      <c r="AB69" s="97"/>
+      <c r="AC69" s="97"/>
       <c r="AD69" s="32">
         <v>7</v>
       </c>
@@ -6684,9 +6692,9 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A70" s="108"/>
-      <c r="B70" s="126"/>
-      <c r="C70" s="126"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="127"/>
       <c r="D70" s="39">
         <v>2</v>
       </c>
@@ -6698,36 +6706,36 @@
       </c>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
       <c r="L70" s="32">
         <v>6</v>
       </c>
       <c r="M70" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
+      <c r="O70" s="104"/>
+      <c r="P70" s="104"/>
+      <c r="Q70" s="104"/>
       <c r="R70" s="32">
         <v>3</v>
       </c>
       <c r="S70" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="U70" s="96"/>
-      <c r="V70" s="96"/>
-      <c r="W70" s="96"/>
+      <c r="U70" s="97"/>
+      <c r="V70" s="97"/>
+      <c r="W70" s="97"/>
       <c r="X70" s="32">
         <v>11</v>
       </c>
       <c r="Y70" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AA70" s="96"/>
-      <c r="AB70" s="96"/>
-      <c r="AC70" s="96"/>
+      <c r="AA70" s="97"/>
+      <c r="AB70" s="97"/>
+      <c r="AC70" s="97"/>
       <c r="AD70" s="32">
         <v>22</v>
       </c>
@@ -6736,9 +6744,9 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A71" s="108"/>
-      <c r="B71" s="126"/>
-      <c r="C71" s="126"/>
+      <c r="A71" s="109"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="127"/>
       <c r="D71" s="39">
         <v>3</v>
       </c>
@@ -6750,49 +6758,49 @@
       </c>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="103"/>
+      <c r="I71" s="104"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104"/>
       <c r="L71" s="32">
         <v>13</v>
       </c>
       <c r="M71" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="O71" s="103"/>
-      <c r="P71" s="103"/>
-      <c r="Q71" s="103"/>
+      <c r="O71" s="104"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
       <c r="R71" s="32">
         <v>4</v>
       </c>
       <c r="S71" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="U71" s="96"/>
-      <c r="V71" s="96"/>
-      <c r="W71" s="96"/>
+      <c r="U71" s="97"/>
+      <c r="V71" s="97"/>
+      <c r="W71" s="97"/>
       <c r="X71" s="32">
         <v>14</v>
       </c>
       <c r="Y71" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AA71" s="96"/>
-      <c r="AB71" s="96"/>
-      <c r="AC71" s="97" t="s">
+      <c r="AA71" s="97"/>
+      <c r="AB71" s="97"/>
+      <c r="AC71" s="98" t="s">
         <v>14</v>
       </c>
       <c r="AD71" s="32">
         <v>5</v>
       </c>
       <c r="AE71" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A72" s="108"/>
-      <c r="B72" s="126"/>
-      <c r="C72" s="126"/>
+      <c r="A72" s="109"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="39">
         <v>4</v>
       </c>
@@ -6804,27 +6812,27 @@
       </c>
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
       <c r="L72" s="32">
         <v>17</v>
       </c>
       <c r="M72" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="O72" s="103"/>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="103"/>
+      <c r="O72" s="104"/>
+      <c r="P72" s="104"/>
+      <c r="Q72" s="104"/>
       <c r="R72" s="32">
         <v>5</v>
       </c>
-      <c r="S72" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="U72" s="96"/>
-      <c r="V72" s="96"/>
-      <c r="W72" s="97" t="s">
+      <c r="S72" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="U72" s="97"/>
+      <c r="V72" s="97"/>
+      <c r="W72" s="98" t="s">
         <v>14</v>
       </c>
       <c r="X72" s="32">
@@ -6833,20 +6841,20 @@
       <c r="Y72" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA72" s="96"/>
-      <c r="AB72" s="96"/>
-      <c r="AC72" s="97"/>
+      <c r="AA72" s="97"/>
+      <c r="AB72" s="97"/>
+      <c r="AC72" s="98"/>
       <c r="AD72" s="32">
         <v>16</v>
       </c>
       <c r="AE72" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A73" s="108"/>
-      <c r="B73" s="126"/>
-      <c r="C73" s="108" t="s">
+      <c r="A73" s="109"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="109" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="39">
@@ -6860,47 +6868,47 @@
       </c>
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="104"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="105"/>
       <c r="L73" s="32">
         <v>19</v>
       </c>
       <c r="M73" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="O73" s="103"/>
-      <c r="P73" s="103"/>
-      <c r="Q73" s="104"/>
+      <c r="O73" s="104"/>
+      <c r="P73" s="104"/>
+      <c r="Q73" s="105"/>
       <c r="R73" s="32">
         <v>17</v>
       </c>
       <c r="S73" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="U73" s="96"/>
-      <c r="V73" s="96"/>
-      <c r="W73" s="97"/>
+      <c r="U73" s="97"/>
+      <c r="V73" s="97"/>
+      <c r="W73" s="98"/>
       <c r="X73" s="32">
         <v>18</v>
       </c>
       <c r="Y73" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA73" s="96"/>
-      <c r="AB73" s="96"/>
-      <c r="AC73" s="97"/>
+        <v>85</v>
+      </c>
+      <c r="AA73" s="97"/>
+      <c r="AB73" s="97"/>
+      <c r="AC73" s="98"/>
       <c r="AD73" s="32">
         <v>17</v>
       </c>
       <c r="AE73" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A74" s="108"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="108"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="39">
         <v>2</v>
       </c>
@@ -6912,31 +6920,31 @@
       </c>
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="98" t="s">
+      <c r="I74" s="104"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="99" t="s">
         <v>14</v>
       </c>
       <c r="L74" s="32">
         <v>5</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="O74" s="103"/>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="O74" s="104"/>
+      <c r="P74" s="104"/>
+      <c r="Q74" s="99" t="s">
         <v>14</v>
       </c>
       <c r="R74" s="32">
         <v>3</v>
       </c>
       <c r="S74" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="U74" s="96"/>
-      <c r="V74" s="96"/>
-      <c r="W74" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="U74" s="97"/>
+      <c r="V74" s="97"/>
+      <c r="W74" s="98" t="s">
         <v>15</v>
       </c>
       <c r="X74" s="32">
@@ -6945,20 +6953,20 @@
       <c r="Y74" s="50">
         <v>84</v>
       </c>
-      <c r="AA74" s="96"/>
-      <c r="AB74" s="96"/>
-      <c r="AC74" s="97"/>
+      <c r="AA74" s="97"/>
+      <c r="AB74" s="97"/>
+      <c r="AC74" s="98"/>
       <c r="AD74" s="32">
         <v>19</v>
       </c>
       <c r="AE74" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A75" s="108"/>
-      <c r="B75" s="126"/>
-      <c r="C75" s="108"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="39">
         <v>3</v>
       </c>
@@ -6970,36 +6978,36 @@
       </c>
       <c r="G75" s="33"/>
       <c r="H75" s="34"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="100"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="101"/>
       <c r="L75" s="32">
         <v>15</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="O75" s="103"/>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="99"/>
+        <v>90</v>
+      </c>
+      <c r="O75" s="104"/>
+      <c r="P75" s="104"/>
+      <c r="Q75" s="100"/>
       <c r="R75" s="32">
         <v>5</v>
       </c>
       <c r="S75" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="U75" s="96"/>
-      <c r="V75" s="96"/>
-      <c r="W75" s="97"/>
+        <v>89</v>
+      </c>
+      <c r="U75" s="97"/>
+      <c r="V75" s="97"/>
+      <c r="W75" s="98"/>
       <c r="X75" s="32">
         <v>3</v>
       </c>
       <c r="Y75" s="50">
         <v>78</v>
       </c>
-      <c r="AA75" s="96"/>
-      <c r="AB75" s="96"/>
-      <c r="AC75" s="97" t="s">
+      <c r="AA75" s="97"/>
+      <c r="AB75" s="97"/>
+      <c r="AC75" s="98" t="s">
         <v>15</v>
       </c>
       <c r="AD75" s="32">
@@ -7010,9 +7018,9 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A76" s="108"/>
-      <c r="B76" s="126"/>
-      <c r="C76" s="108" t="s">
+      <c r="A76" s="109"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="109" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="39">
@@ -7026,9 +7034,9 @@
       </c>
       <c r="G76" s="33"/>
       <c r="H76" s="34"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="98" t="s">
+      <c r="I76" s="104"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="99" t="s">
         <v>15</v>
       </c>
       <c r="L76" s="32">
@@ -7037,27 +7045,27 @@
       <c r="M76" s="50">
         <v>72</v>
       </c>
-      <c r="O76" s="103"/>
-      <c r="P76" s="103"/>
-      <c r="Q76" s="99"/>
+      <c r="O76" s="104"/>
+      <c r="P76" s="104"/>
+      <c r="Q76" s="100"/>
       <c r="R76" s="32">
         <v>7</v>
       </c>
       <c r="S76" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="U76" s="96"/>
-      <c r="V76" s="96"/>
-      <c r="W76" s="97"/>
+        <v>88</v>
+      </c>
+      <c r="U76" s="97"/>
+      <c r="V76" s="97"/>
+      <c r="W76" s="98"/>
       <c r="X76" s="32">
         <v>5</v>
       </c>
       <c r="Y76" s="50">
         <v>120</v>
       </c>
-      <c r="AA76" s="96"/>
-      <c r="AB76" s="96"/>
-      <c r="AC76" s="97"/>
+      <c r="AA76" s="97"/>
+      <c r="AB76" s="97"/>
+      <c r="AC76" s="98"/>
       <c r="AD76" s="32">
         <v>5</v>
       </c>
@@ -7066,9 +7074,9 @@
       </c>
     </row>
     <row r="77" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="109"/>
-      <c r="B77" s="127"/>
-      <c r="C77" s="109"/>
+      <c r="A77" s="110"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="110"/>
       <c r="D77" s="40">
         <v>2</v>
       </c>
@@ -7080,36 +7088,36 @@
       </c>
       <c r="G77" s="33"/>
       <c r="H77" s="34"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="99"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="100"/>
       <c r="L77" s="32">
         <v>4</v>
       </c>
       <c r="M77" s="50">
         <v>78</v>
       </c>
-      <c r="O77" s="103"/>
-      <c r="P77" s="103"/>
-      <c r="Q77" s="99"/>
+      <c r="O77" s="104"/>
+      <c r="P77" s="104"/>
+      <c r="Q77" s="100"/>
       <c r="R77" s="32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S77" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="U77" s="96"/>
-      <c r="V77" s="96"/>
-      <c r="W77" s="97"/>
+        <v>85</v>
+      </c>
+      <c r="U77" s="97"/>
+      <c r="V77" s="97"/>
+      <c r="W77" s="98"/>
       <c r="X77" s="32">
         <v>6</v>
       </c>
       <c r="Y77" s="50">
         <v>143</v>
       </c>
-      <c r="AA77" s="96"/>
-      <c r="AB77" s="96"/>
-      <c r="AC77" s="97"/>
+      <c r="AA77" s="97"/>
+      <c r="AB77" s="97"/>
+      <c r="AC77" s="98"/>
       <c r="AD77" s="32">
         <v>7</v>
       </c>
@@ -7118,13 +7126,13 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A78" s="111" t="s">
+      <c r="A78" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="117" t="s">
+      <c r="B78" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="42">
@@ -7138,36 +7146,36 @@
       </c>
       <c r="G78" s="33"/>
       <c r="H78" s="34"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="99"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="100"/>
       <c r="L78" s="32">
         <v>5</v>
       </c>
       <c r="M78" s="50">
         <v>72</v>
       </c>
-      <c r="O78" s="103"/>
-      <c r="P78" s="103"/>
-      <c r="Q78" s="99"/>
+      <c r="O78" s="104"/>
+      <c r="P78" s="104"/>
+      <c r="Q78" s="100"/>
       <c r="R78" s="32">
         <v>13</v>
       </c>
       <c r="S78" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="U78" s="96"/>
-      <c r="V78" s="96"/>
-      <c r="W78" s="97"/>
+        <v>87</v>
+      </c>
+      <c r="U78" s="97"/>
+      <c r="V78" s="97"/>
+      <c r="W78" s="98"/>
       <c r="X78" s="32">
         <v>8</v>
       </c>
       <c r="Y78" s="50">
         <v>100</v>
       </c>
-      <c r="AA78" s="96"/>
-      <c r="AB78" s="96"/>
-      <c r="AC78" s="97"/>
+      <c r="AA78" s="97"/>
+      <c r="AB78" s="97"/>
+      <c r="AC78" s="98"/>
       <c r="AD78" s="32">
         <v>11</v>
       </c>
@@ -7176,9 +7184,9 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A79" s="112"/>
-      <c r="B79" s="119"/>
-      <c r="C79" s="115"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="120"/>
+      <c r="C79" s="116"/>
       <c r="D79" s="43">
         <v>2</v>
       </c>
@@ -7190,36 +7198,36 @@
       </c>
       <c r="G79" s="33"/>
       <c r="H79" s="34"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="99"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="100"/>
       <c r="L79" s="32">
         <v>7</v>
       </c>
       <c r="M79" s="50">
         <v>112</v>
       </c>
-      <c r="O79" s="103"/>
-      <c r="P79" s="103"/>
-      <c r="Q79" s="100"/>
+      <c r="O79" s="104"/>
+      <c r="P79" s="104"/>
+      <c r="Q79" s="101"/>
       <c r="R79" s="32">
         <v>15</v>
       </c>
       <c r="S79" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="U79" s="96"/>
-      <c r="V79" s="96"/>
-      <c r="W79" s="97"/>
+        <v>86</v>
+      </c>
+      <c r="U79" s="97"/>
+      <c r="V79" s="97"/>
+      <c r="W79" s="98"/>
       <c r="X79" s="32">
         <v>10</v>
       </c>
       <c r="Y79" s="50">
         <v>90</v>
       </c>
-      <c r="AA79" s="96"/>
-      <c r="AB79" s="96"/>
-      <c r="AC79" s="97"/>
+      <c r="AA79" s="97"/>
+      <c r="AB79" s="97"/>
+      <c r="AC79" s="98"/>
       <c r="AD79" s="32">
         <v>15</v>
       </c>
@@ -7228,9 +7236,9 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A80" s="112"/>
-      <c r="B80" s="119"/>
-      <c r="C80" s="115"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="120"/>
+      <c r="C80" s="116"/>
       <c r="D80" s="43">
         <v>3</v>
       </c>
@@ -7242,18 +7250,18 @@
       </c>
       <c r="G80" s="33"/>
       <c r="H80" s="34"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="103"/>
-      <c r="K80" s="99"/>
+      <c r="I80" s="104"/>
+      <c r="J80" s="104"/>
+      <c r="K80" s="100"/>
       <c r="L80" s="32">
         <v>11</v>
       </c>
       <c r="M80" s="50">
         <v>85</v>
       </c>
-      <c r="O80" s="103"/>
-      <c r="P80" s="103"/>
-      <c r="Q80" s="101" t="s">
+      <c r="O80" s="104"/>
+      <c r="P80" s="104"/>
+      <c r="Q80" s="102" t="s">
         <v>15</v>
       </c>
       <c r="R80" s="32">
@@ -7262,18 +7270,18 @@
       <c r="S80" s="50">
         <v>72</v>
       </c>
-      <c r="U80" s="96"/>
-      <c r="V80" s="96"/>
-      <c r="W80" s="97"/>
+      <c r="U80" s="97"/>
+      <c r="V80" s="97"/>
+      <c r="W80" s="98"/>
       <c r="X80" s="32">
         <v>12</v>
       </c>
       <c r="Y80" s="50">
         <v>105</v>
       </c>
-      <c r="AA80" s="96"/>
-      <c r="AB80" s="96"/>
-      <c r="AC80" s="97"/>
+      <c r="AA80" s="97"/>
+      <c r="AB80" s="97"/>
+      <c r="AC80" s="98"/>
       <c r="AD80" s="32">
         <v>20</v>
       </c>
@@ -7282,9 +7290,9 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A81" s="112"/>
-      <c r="B81" s="119"/>
-      <c r="C81" s="115"/>
+      <c r="A81" s="113"/>
+      <c r="B81" s="120"/>
+      <c r="C81" s="116"/>
       <c r="D81" s="44">
         <v>4</v>
       </c>
@@ -7296,36 +7304,36 @@
       </c>
       <c r="G81" s="33"/>
       <c r="H81" s="34"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="99"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="100"/>
       <c r="L81" s="32">
         <v>17</v>
       </c>
       <c r="M81" s="50">
         <v>105</v>
       </c>
-      <c r="O81" s="103"/>
-      <c r="P81" s="103"/>
-      <c r="Q81" s="99"/>
+      <c r="O81" s="104"/>
+      <c r="P81" s="104"/>
+      <c r="Q81" s="100"/>
       <c r="R81" s="32">
         <v>4</v>
       </c>
       <c r="S81" s="50">
         <v>78</v>
       </c>
-      <c r="U81" s="96"/>
-      <c r="V81" s="96"/>
-      <c r="W81" s="97"/>
+      <c r="U81" s="97"/>
+      <c r="V81" s="97"/>
+      <c r="W81" s="98"/>
       <c r="X81" s="32">
         <v>13</v>
       </c>
       <c r="Y81" s="50">
         <v>120</v>
       </c>
-      <c r="AA81" s="96"/>
-      <c r="AB81" s="96"/>
-      <c r="AC81" s="97"/>
+      <c r="AA81" s="97"/>
+      <c r="AB81" s="97"/>
+      <c r="AC81" s="98"/>
       <c r="AD81" s="32">
         <v>21</v>
       </c>
@@ -7334,9 +7342,9 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A82" s="112"/>
-      <c r="B82" s="119"/>
-      <c r="C82" s="114" t="s">
+      <c r="A82" s="113"/>
+      <c r="B82" s="120"/>
+      <c r="C82" s="115" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="44">
@@ -7350,36 +7358,36 @@
       </c>
       <c r="G82" s="45"/>
       <c r="H82" s="34"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="99"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="100"/>
       <c r="L82" s="58">
         <v>20</v>
       </c>
       <c r="M82" s="50">
         <v>136</v>
       </c>
-      <c r="O82" s="103"/>
-      <c r="P82" s="103"/>
-      <c r="Q82" s="99"/>
+      <c r="O82" s="104"/>
+      <c r="P82" s="104"/>
+      <c r="Q82" s="100"/>
       <c r="R82" s="32">
         <v>7</v>
       </c>
       <c r="S82" s="50">
         <v>120</v>
       </c>
-      <c r="U82" s="96"/>
-      <c r="V82" s="96"/>
-      <c r="W82" s="97"/>
+      <c r="U82" s="97"/>
+      <c r="V82" s="97"/>
+      <c r="W82" s="98"/>
       <c r="X82" s="32">
         <v>17</v>
       </c>
       <c r="Y82" s="50">
         <v>136</v>
       </c>
-      <c r="AA82" s="96"/>
-      <c r="AB82" s="96"/>
-      <c r="AC82" s="97" t="s">
+      <c r="AA82" s="97"/>
+      <c r="AB82" s="97"/>
+      <c r="AC82" s="98" t="s">
         <v>17</v>
       </c>
       <c r="AD82" s="32">
@@ -7390,9 +7398,9 @@
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A83" s="112"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="114"/>
+      <c r="A83" s="113"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="115"/>
       <c r="D83" s="44">
         <v>2</v>
       </c>
@@ -7404,36 +7412,36 @@
       </c>
       <c r="G83" s="45"/>
       <c r="H83" s="34"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="100"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="101"/>
       <c r="L83" s="32">
         <v>23</v>
       </c>
       <c r="M83" s="50">
         <v>125</v>
       </c>
-      <c r="O83" s="103"/>
-      <c r="P83" s="103"/>
-      <c r="Q83" s="99"/>
+      <c r="O83" s="104"/>
+      <c r="P83" s="104"/>
+      <c r="Q83" s="100"/>
       <c r="R83" s="32">
         <v>11</v>
       </c>
       <c r="S83" s="50">
         <v>85</v>
       </c>
-      <c r="U83" s="96"/>
-      <c r="V83" s="96"/>
-      <c r="W83" s="97"/>
+      <c r="U83" s="97"/>
+      <c r="V83" s="97"/>
+      <c r="W83" s="98"/>
       <c r="X83" s="32">
         <v>18</v>
       </c>
       <c r="Y83" s="50">
         <v>125</v>
       </c>
-      <c r="AA83" s="96"/>
-      <c r="AB83" s="96"/>
-      <c r="AC83" s="97"/>
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="97"/>
+      <c r="AC83" s="98"/>
       <c r="AD83" s="58">
         <v>2</v>
       </c>
@@ -7442,9 +7450,9 @@
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A84" s="112"/>
-      <c r="B84" s="119"/>
-      <c r="C84" s="114"/>
+      <c r="A84" s="113"/>
+      <c r="B84" s="120"/>
+      <c r="C84" s="115"/>
       <c r="D84" s="44">
         <v>3</v>
       </c>
@@ -7456,9 +7464,9 @@
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="34"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="98" t="s">
+      <c r="I84" s="104"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="99" t="s">
         <v>17</v>
       </c>
       <c r="L84" s="35">
@@ -7467,40 +7475,40 @@
       <c r="M84" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="O84" s="103"/>
-      <c r="P84" s="103"/>
-      <c r="Q84" s="99"/>
+      <c r="O84" s="104"/>
+      <c r="P84" s="104"/>
+      <c r="Q84" s="100"/>
       <c r="R84" s="32">
         <v>12</v>
       </c>
       <c r="S84" s="50">
         <v>90</v>
       </c>
-      <c r="U84" s="96"/>
-      <c r="V84" s="96"/>
-      <c r="W84" s="97" t="s">
+      <c r="U84" s="97"/>
+      <c r="V84" s="97"/>
+      <c r="W84" s="98" t="s">
         <v>17</v>
       </c>
       <c r="X84" s="32">
         <v>1</v>
       </c>
       <c r="Y84" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA84" s="96"/>
-      <c r="AB84" s="96"/>
-      <c r="AC84" s="97"/>
+        <v>93</v>
+      </c>
+      <c r="AA84" s="97"/>
+      <c r="AB84" s="97"/>
+      <c r="AC84" s="98"/>
       <c r="AD84" s="32">
         <v>15</v>
       </c>
       <c r="AE84" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A85" s="112"/>
-      <c r="B85" s="119"/>
-      <c r="C85" s="121" t="s">
+      <c r="A85" s="113"/>
+      <c r="B85" s="120"/>
+      <c r="C85" s="122" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="44">
@@ -7514,47 +7522,47 @@
       </c>
       <c r="G85" s="33"/>
       <c r="H85" s="34"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="99"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="100"/>
       <c r="L85" s="59">
         <v>2</v>
       </c>
       <c r="M85" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="103"/>
-      <c r="P85" s="103"/>
-      <c r="Q85" s="99"/>
+      <c r="O85" s="104"/>
+      <c r="P85" s="104"/>
+      <c r="Q85" s="100"/>
       <c r="R85" s="32">
         <v>14</v>
       </c>
       <c r="S85" s="50">
         <v>105</v>
       </c>
-      <c r="U85" s="96"/>
-      <c r="V85" s="96"/>
-      <c r="W85" s="97"/>
+      <c r="U85" s="97"/>
+      <c r="V85" s="97"/>
+      <c r="W85" s="98"/>
       <c r="X85" s="32">
         <v>2</v>
       </c>
       <c r="Y85" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AA85" s="96"/>
-      <c r="AB85" s="96"/>
-      <c r="AC85" s="97"/>
+      <c r="AA85" s="97"/>
+      <c r="AB85" s="97"/>
+      <c r="AC85" s="98"/>
       <c r="AD85" s="32">
         <v>19</v>
       </c>
       <c r="AE85" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A86" s="112"/>
-      <c r="B86" s="119"/>
-      <c r="C86" s="119"/>
+      <c r="A86" s="113"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
       <c r="D86" s="44">
         <v>2</v>
       </c>
@@ -7566,38 +7574,38 @@
       </c>
       <c r="G86" s="33"/>
       <c r="H86" s="34"/>
-      <c r="I86" s="103"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="99"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="100"/>
       <c r="L86" s="32">
         <v>3</v>
       </c>
       <c r="M86" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="O86" s="103"/>
-      <c r="P86" s="103"/>
-      <c r="Q86" s="99"/>
+        <v>93</v>
+      </c>
+      <c r="O86" s="104"/>
+      <c r="P86" s="104"/>
+      <c r="Q86" s="100"/>
       <c r="R86" s="32">
         <v>15</v>
       </c>
       <c r="S86" s="50">
         <v>110</v>
       </c>
-      <c r="U86" s="96"/>
-      <c r="V86" s="96"/>
-      <c r="W86" s="97"/>
+      <c r="U86" s="97"/>
+      <c r="V86" s="97"/>
+      <c r="W86" s="98"/>
       <c r="X86" s="32">
         <v>22</v>
       </c>
       <c r="Y86" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A87" s="112"/>
-      <c r="B87" s="119"/>
-      <c r="C87" s="122"/>
+      <c r="A87" s="113"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="123"/>
       <c r="D87" s="44">
         <v>3</v>
       </c>
@@ -7609,18 +7617,18 @@
       </c>
       <c r="G87" s="33"/>
       <c r="H87" s="34"/>
-      <c r="I87" s="104"/>
-      <c r="J87" s="104"/>
-      <c r="K87" s="100"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="101"/>
       <c r="L87" s="32">
         <v>17</v>
       </c>
       <c r="M87" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="O87" s="103"/>
-      <c r="P87" s="103"/>
-      <c r="Q87" s="99"/>
+        <v>92</v>
+      </c>
+      <c r="O87" s="104"/>
+      <c r="P87" s="104"/>
+      <c r="Q87" s="100"/>
       <c r="R87" s="32">
         <v>16</v>
       </c>
@@ -7634,9 +7642,9 @@
       <c r="Y87" s="47"/>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A88" s="112"/>
-      <c r="B88" s="119"/>
-      <c r="C88" s="123" t="s">
+      <c r="A88" s="113"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="124" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="44">
@@ -7655,9 +7663,9 @@
       <c r="K88" s="47"/>
       <c r="L88" s="36"/>
       <c r="M88" s="47"/>
-      <c r="O88" s="103"/>
-      <c r="P88" s="103"/>
-      <c r="Q88" s="99"/>
+      <c r="O88" s="104"/>
+      <c r="P88" s="104"/>
+      <c r="Q88" s="100"/>
       <c r="R88" s="32">
         <v>19</v>
       </c>
@@ -7666,9 +7674,9 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A89" s="112"/>
-      <c r="B89" s="119"/>
-      <c r="C89" s="124"/>
+      <c r="A89" s="113"/>
+      <c r="B89" s="120"/>
+      <c r="C89" s="125"/>
       <c r="D89" s="44">
         <v>2</v>
       </c>
@@ -7680,9 +7688,9 @@
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="34"/>
-      <c r="O89" s="103"/>
-      <c r="P89" s="103"/>
-      <c r="Q89" s="100"/>
+      <c r="O89" s="104"/>
+      <c r="P89" s="104"/>
+      <c r="Q89" s="101"/>
       <c r="R89" s="32">
         <v>21</v>
       </c>
@@ -7691,9 +7699,9 @@
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A90" s="112"/>
-      <c r="B90" s="119"/>
-      <c r="C90" s="121" t="s">
+      <c r="A90" s="113"/>
+      <c r="B90" s="120"/>
+      <c r="C90" s="122" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="44">
@@ -7707,22 +7715,22 @@
       </c>
       <c r="G90" s="33"/>
       <c r="H90" s="34"/>
-      <c r="O90" s="103"/>
-      <c r="P90" s="103"/>
-      <c r="Q90" s="98" t="s">
+      <c r="O90" s="104"/>
+      <c r="P90" s="104"/>
+      <c r="Q90" s="99" t="s">
         <v>17</v>
       </c>
       <c r="R90" s="32">
         <v>1</v>
       </c>
       <c r="S90" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A91" s="112"/>
-      <c r="B91" s="119"/>
-      <c r="C91" s="119"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="120"/>
+      <c r="C91" s="120"/>
       <c r="D91" s="44">
         <v>2</v>
       </c>
@@ -7734,20 +7742,20 @@
       </c>
       <c r="G91" s="33"/>
       <c r="H91" s="34"/>
-      <c r="O91" s="103"/>
-      <c r="P91" s="103"/>
-      <c r="Q91" s="99"/>
+      <c r="O91" s="104"/>
+      <c r="P91" s="104"/>
+      <c r="Q91" s="100"/>
       <c r="R91" s="58">
         <v>2</v>
       </c>
       <c r="S91" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A92" s="112"/>
-      <c r="B92" s="119"/>
-      <c r="C92" s="119"/>
+      <c r="A92" s="113"/>
+      <c r="B92" s="120"/>
+      <c r="C92" s="120"/>
       <c r="D92" s="44">
         <v>3</v>
       </c>
@@ -7759,9 +7767,9 @@
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="34"/>
-      <c r="O92" s="103"/>
-      <c r="P92" s="103"/>
-      <c r="Q92" s="99"/>
+      <c r="O92" s="104"/>
+      <c r="P92" s="104"/>
+      <c r="Q92" s="100"/>
       <c r="R92" s="32">
         <v>3</v>
       </c>
@@ -7770,9 +7778,9 @@
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A93" s="112"/>
-      <c r="B93" s="119"/>
-      <c r="C93" s="119"/>
+      <c r="A93" s="113"/>
+      <c r="B93" s="120"/>
+      <c r="C93" s="120"/>
       <c r="D93" s="44">
         <v>4</v>
       </c>
@@ -7784,20 +7792,20 @@
       </c>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
-      <c r="O93" s="104"/>
-      <c r="P93" s="104"/>
-      <c r="Q93" s="100"/>
+      <c r="O93" s="105"/>
+      <c r="P93" s="105"/>
+      <c r="Q93" s="101"/>
       <c r="R93" s="32">
         <v>15</v>
       </c>
       <c r="S93" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A94" s="112"/>
-      <c r="B94" s="119"/>
-      <c r="C94" s="122"/>
+      <c r="A94" s="113"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="44">
         <v>5</v>
       </c>
@@ -7811,9 +7819,9 @@
       <c r="H94" s="34"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A95" s="112"/>
-      <c r="B95" s="119"/>
-      <c r="C95" s="115" t="s">
+      <c r="A95" s="113"/>
+      <c r="B95" s="120"/>
+      <c r="C95" s="116" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="44">
@@ -7829,9 +7837,9 @@
       <c r="H95" s="34"/>
     </row>
     <row r="96" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="113"/>
-      <c r="B96" s="120"/>
-      <c r="C96" s="116"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="121"/>
+      <c r="C96" s="117"/>
       <c r="D96" s="46">
         <v>2</v>
       </c>
@@ -7845,13 +7853,13 @@
       <c r="H96" s="34"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="105" t="s">
+      <c r="A97" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="117" t="s">
+      <c r="B97" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="42">
@@ -7867,9 +7875,9 @@
       <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="106"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="115"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="116"/>
       <c r="D98" s="43">
         <v>2</v>
       </c>
@@ -7883,9 +7891,9 @@
       <c r="H98" s="34"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="106"/>
-      <c r="B99" s="115"/>
-      <c r="C99" s="115"/>
+      <c r="A99" s="107"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="116"/>
       <c r="D99" s="43">
         <v>3</v>
       </c>
@@ -7899,9 +7907,9 @@
       <c r="H99" s="34"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="106"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="116"/>
       <c r="D100" s="44">
         <v>4</v>
       </c>
@@ -7915,9 +7923,9 @@
       <c r="H100" s="34"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="106"/>
-      <c r="B101" s="115"/>
-      <c r="C101" s="114" t="s">
+      <c r="A101" s="107"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="115" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="44">
@@ -7933,9 +7941,9 @@
       <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="106"/>
-      <c r="B102" s="115"/>
-      <c r="C102" s="114"/>
+      <c r="A102" s="107"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="115"/>
       <c r="D102" s="44">
         <v>2</v>
       </c>
@@ -7949,9 +7957,9 @@
       <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="106"/>
-      <c r="B103" s="115"/>
-      <c r="C103" s="114"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="115"/>
       <c r="D103" s="44">
         <v>3</v>
       </c>
@@ -7965,9 +7973,9 @@
       <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="106"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="115" t="s">
+      <c r="A104" s="107"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="44">
@@ -7983,9 +7991,9 @@
       <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="106"/>
-      <c r="B105" s="115"/>
-      <c r="C105" s="115"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="116"/>
       <c r="D105" s="44">
         <v>2</v>
       </c>
@@ -7999,9 +8007,9 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="106"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="115"/>
+      <c r="A106" s="107"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="116"/>
       <c r="D106" s="44">
         <v>3</v>
       </c>
@@ -8015,9 +8023,9 @@
       <c r="H106" s="34"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="106"/>
-      <c r="B107" s="115"/>
-      <c r="C107" s="114" t="s">
+      <c r="A107" s="107"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="115" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="44">
@@ -8033,9 +8041,9 @@
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="106"/>
-      <c r="B108" s="115"/>
-      <c r="C108" s="114"/>
+      <c r="A108" s="107"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="115"/>
       <c r="D108" s="44">
         <v>2</v>
       </c>
@@ -8049,9 +8057,9 @@
       <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="106"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="115" t="s">
+      <c r="A109" s="107"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="116" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="44">
@@ -8067,9 +8075,9 @@
       <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="106"/>
-      <c r="B110" s="115"/>
-      <c r="C110" s="115"/>
+      <c r="A110" s="107"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="116"/>
       <c r="D110" s="44">
         <v>2</v>
       </c>
@@ -8083,9 +8091,9 @@
       <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="106"/>
-      <c r="B111" s="115"/>
-      <c r="C111" s="115"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="116"/>
       <c r="D111" s="44">
         <v>3</v>
       </c>
@@ -8099,9 +8107,9 @@
       <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="106"/>
-      <c r="B112" s="115"/>
-      <c r="C112" s="115"/>
+      <c r="A112" s="107"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="116"/>
       <c r="D112" s="44">
         <v>4</v>
       </c>
@@ -8115,9 +8123,9 @@
       <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="106"/>
-      <c r="B113" s="115"/>
-      <c r="C113" s="115"/>
+      <c r="A113" s="107"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="116"/>
       <c r="D113" s="44">
         <v>5</v>
       </c>
@@ -8131,9 +8139,9 @@
       <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="106"/>
-      <c r="B114" s="115"/>
-      <c r="C114" s="115" t="s">
+      <c r="A114" s="107"/>
+      <c r="B114" s="116"/>
+      <c r="C114" s="116" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="44">
@@ -8149,9 +8157,9 @@
       <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="107"/>
-      <c r="B115" s="116"/>
-      <c r="C115" s="116"/>
+      <c r="A115" s="108"/>
+      <c r="B115" s="117"/>
+      <c r="C115" s="117"/>
       <c r="D115" s="46">
         <v>2</v>
       </c>
@@ -8165,13 +8173,13 @@
       <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="105" t="s">
+      <c r="A116" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="117" t="s">
+      <c r="B116" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="42">
@@ -8187,9 +8195,9 @@
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="106"/>
-      <c r="B117" s="115"/>
-      <c r="C117" s="115"/>
+      <c r="A117" s="107"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="116"/>
       <c r="D117" s="43">
         <v>2</v>
       </c>
@@ -8203,9 +8211,9 @@
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="106"/>
-      <c r="B118" s="115"/>
-      <c r="C118" s="115"/>
+      <c r="A118" s="107"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="116"/>
       <c r="D118" s="43">
         <v>3</v>
       </c>
@@ -8219,9 +8227,9 @@
       <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="106"/>
-      <c r="B119" s="115"/>
-      <c r="C119" s="115"/>
+      <c r="A119" s="107"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="116"/>
       <c r="D119" s="44">
         <v>4</v>
       </c>
@@ -8235,9 +8243,9 @@
       <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="106"/>
-      <c r="B120" s="115"/>
-      <c r="C120" s="114" t="s">
+      <c r="A120" s="107"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="115" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="44">
@@ -8253,9 +8261,9 @@
       <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="106"/>
-      <c r="B121" s="115"/>
-      <c r="C121" s="114"/>
+      <c r="A121" s="107"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="115"/>
       <c r="D121" s="44">
         <v>2</v>
       </c>
@@ -8269,9 +8277,9 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="106"/>
-      <c r="B122" s="115"/>
-      <c r="C122" s="114"/>
+      <c r="A122" s="107"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="115"/>
       <c r="D122" s="44">
         <v>3</v>
       </c>
@@ -8285,9 +8293,9 @@
       <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="106"/>
-      <c r="B123" s="115"/>
-      <c r="C123" s="115" t="s">
+      <c r="A123" s="107"/>
+      <c r="B123" s="116"/>
+      <c r="C123" s="116" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="44">
@@ -8303,9 +8311,9 @@
       <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="106"/>
-      <c r="B124" s="115"/>
-      <c r="C124" s="115"/>
+      <c r="A124" s="107"/>
+      <c r="B124" s="116"/>
+      <c r="C124" s="116"/>
       <c r="D124" s="44">
         <v>2</v>
       </c>
@@ -8319,9 +8327,9 @@
       <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="106"/>
-      <c r="B125" s="115"/>
-      <c r="C125" s="115"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="116"/>
       <c r="D125" s="44">
         <v>3</v>
       </c>
@@ -8335,9 +8343,9 @@
       <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="106"/>
-      <c r="B126" s="115"/>
-      <c r="C126" s="114" t="s">
+      <c r="A126" s="107"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="115" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="44">
@@ -8353,9 +8361,9 @@
       <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="106"/>
-      <c r="B127" s="115"/>
-      <c r="C127" s="114"/>
+      <c r="A127" s="107"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="115"/>
       <c r="D127" s="44">
         <v>2</v>
       </c>
@@ -8369,9 +8377,9 @@
       <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="106"/>
-      <c r="B128" s="115"/>
-      <c r="C128" s="115" t="s">
+      <c r="A128" s="107"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="116" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="44">
@@ -8387,9 +8395,9 @@
       <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="106"/>
-      <c r="B129" s="115"/>
-      <c r="C129" s="115"/>
+      <c r="A129" s="107"/>
+      <c r="B129" s="116"/>
+      <c r="C129" s="116"/>
       <c r="D129" s="44">
         <v>2</v>
       </c>
@@ -8403,9 +8411,9 @@
       <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="106"/>
-      <c r="B130" s="115"/>
-      <c r="C130" s="115"/>
+      <c r="A130" s="107"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="116"/>
       <c r="D130" s="44">
         <v>3</v>
       </c>
@@ -8419,9 +8427,9 @@
       <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="106"/>
-      <c r="B131" s="115"/>
-      <c r="C131" s="115"/>
+      <c r="A131" s="107"/>
+      <c r="B131" s="116"/>
+      <c r="C131" s="116"/>
       <c r="D131" s="44">
         <v>4</v>
       </c>
@@ -8435,9 +8443,9 @@
       <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="106"/>
-      <c r="B132" s="115"/>
-      <c r="C132" s="115"/>
+      <c r="A132" s="107"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="116"/>
       <c r="D132" s="44">
         <v>5</v>
       </c>
@@ -8451,9 +8459,9 @@
       <c r="H132" s="34"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="106"/>
-      <c r="B133" s="115"/>
-      <c r="C133" s="115" t="s">
+      <c r="A133" s="107"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="116" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="44">
@@ -8469,9 +8477,9 @@
       <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="107"/>
-      <c r="B134" s="116"/>
-      <c r="C134" s="116"/>
+      <c r="A134" s="108"/>
+      <c r="B134" s="117"/>
+      <c r="C134" s="117"/>
       <c r="D134" s="46">
         <v>2</v>
       </c>
@@ -8485,13 +8493,13 @@
       <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="105" t="s">
+      <c r="A135" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B135" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="117" t="s">
+      <c r="B135" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="42">
@@ -8507,9 +8515,9 @@
       <c r="H135" s="34"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="106"/>
-      <c r="B136" s="115"/>
-      <c r="C136" s="115"/>
+      <c r="A136" s="107"/>
+      <c r="B136" s="116"/>
+      <c r="C136" s="116"/>
       <c r="D136" s="43">
         <v>2</v>
       </c>
@@ -8523,9 +8531,9 @@
       <c r="H136" s="34"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="106"/>
-      <c r="B137" s="115"/>
-      <c r="C137" s="115"/>
+      <c r="A137" s="107"/>
+      <c r="B137" s="116"/>
+      <c r="C137" s="116"/>
       <c r="D137" s="43">
         <v>3</v>
       </c>
@@ -8539,9 +8547,9 @@
       <c r="H137" s="34"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="106"/>
-      <c r="B138" s="115"/>
-      <c r="C138" s="115"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="116"/>
+      <c r="C138" s="116"/>
       <c r="D138" s="44">
         <v>4</v>
       </c>
@@ -8555,9 +8563,9 @@
       <c r="H138" s="34"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="106"/>
-      <c r="B139" s="115"/>
-      <c r="C139" s="114" t="s">
+      <c r="A139" s="107"/>
+      <c r="B139" s="116"/>
+      <c r="C139" s="115" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="44">
@@ -8573,9 +8581,9 @@
       <c r="H139" s="34"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="106"/>
-      <c r="B140" s="115"/>
-      <c r="C140" s="114"/>
+      <c r="A140" s="107"/>
+      <c r="B140" s="116"/>
+      <c r="C140" s="115"/>
       <c r="D140" s="44">
         <v>2</v>
       </c>
@@ -8589,9 +8597,9 @@
       <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="106"/>
-      <c r="B141" s="115"/>
-      <c r="C141" s="114"/>
+      <c r="A141" s="107"/>
+      <c r="B141" s="116"/>
+      <c r="C141" s="115"/>
       <c r="D141" s="44">
         <v>3</v>
       </c>
@@ -8605,9 +8613,9 @@
       <c r="H141" s="34"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="106"/>
-      <c r="B142" s="115"/>
-      <c r="C142" s="115" t="s">
+      <c r="A142" s="107"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="116" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="44">
@@ -8623,9 +8631,9 @@
       <c r="H142" s="34"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="106"/>
-      <c r="B143" s="115"/>
-      <c r="C143" s="115"/>
+      <c r="A143" s="107"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="116"/>
       <c r="D143" s="44">
         <v>2</v>
       </c>
@@ -8639,9 +8647,9 @@
       <c r="H143" s="34"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="106"/>
-      <c r="B144" s="115"/>
-      <c r="C144" s="115"/>
+      <c r="A144" s="107"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="116"/>
       <c r="D144" s="44">
         <v>3</v>
       </c>
@@ -8655,9 +8663,9 @@
       <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" s="106"/>
-      <c r="B145" s="115"/>
-      <c r="C145" s="114" t="s">
+      <c r="A145" s="107"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="115" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="44">
@@ -8673,9 +8681,9 @@
       <c r="H145" s="34"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" s="106"/>
-      <c r="B146" s="115"/>
-      <c r="C146" s="114"/>
+      <c r="A146" s="107"/>
+      <c r="B146" s="116"/>
+      <c r="C146" s="115"/>
       <c r="D146" s="44">
         <v>2</v>
       </c>
@@ -8689,9 +8697,9 @@
       <c r="H146" s="34"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" s="106"/>
-      <c r="B147" s="115"/>
-      <c r="C147" s="115" t="s">
+      <c r="A147" s="107"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="116" t="s">
         <v>15</v>
       </c>
       <c r="D147" s="44">
@@ -8707,9 +8715,9 @@
       <c r="H147" s="34"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" s="106"/>
-      <c r="B148" s="115"/>
-      <c r="C148" s="115"/>
+      <c r="A148" s="107"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="116"/>
       <c r="D148" s="44">
         <v>2</v>
       </c>
@@ -8723,9 +8731,9 @@
       <c r="H148" s="34"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" s="106"/>
-      <c r="B149" s="115"/>
-      <c r="C149" s="115"/>
+      <c r="A149" s="107"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="116"/>
       <c r="D149" s="44">
         <v>3</v>
       </c>
@@ -8739,9 +8747,9 @@
       <c r="H149" s="34"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="106"/>
-      <c r="B150" s="115"/>
-      <c r="C150" s="115"/>
+      <c r="A150" s="107"/>
+      <c r="B150" s="116"/>
+      <c r="C150" s="116"/>
       <c r="D150" s="44">
         <v>4</v>
       </c>
@@ -8756,9 +8764,9 @@
       <c r="I150" s="57"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" s="106"/>
-      <c r="B151" s="115"/>
-      <c r="C151" s="115"/>
+      <c r="A151" s="107"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="116"/>
       <c r="D151" s="44">
         <v>5</v>
       </c>
@@ -8773,9 +8781,9 @@
       <c r="I151" s="57"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" s="106"/>
-      <c r="B152" s="115"/>
-      <c r="C152" s="115" t="s">
+      <c r="A152" s="107"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="116" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="44">
@@ -8792,9 +8800,9 @@
       <c r="I152" s="57"/>
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="107"/>
-      <c r="B153" s="116"/>
-      <c r="C153" s="116"/>
+      <c r="A153" s="108"/>
+      <c r="B153" s="117"/>
+      <c r="C153" s="117"/>
       <c r="D153" s="46">
         <v>2</v>
       </c>
@@ -8974,87 +8982,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="I1" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="I1" s="134" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="134" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9072,8 +9080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC9FD7-30E5-4CA3-B3F4-007E89C10390}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9086,19 +9094,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="D1" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -9489,7 +9497,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -9506,7 +9514,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -9523,7 +9531,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -9540,7 +9548,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -9557,7 +9565,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -9574,7 +9582,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -9727,7 +9735,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -9744,7 +9752,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -10203,7 +10211,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -10220,7 +10228,7 @@
         <v>7</v>
       </c>
       <c r="E67" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -10237,7 +10245,7 @@
         <v>14</v>
       </c>
       <c r="E68" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -10271,7 +10279,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -10288,7 +10296,7 @@
         <v>19</v>
       </c>
       <c r="E71" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -10305,7 +10313,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -10441,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -10475,7 +10483,7 @@
         <v>17</v>
       </c>
       <c r="E82" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -10781,7 +10789,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -10798,7 +10806,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -10815,7 +10823,7 @@
         <v>11</v>
       </c>
       <c r="E102" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -10832,7 +10840,7 @@
         <v>16</v>
       </c>
       <c r="E103" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -10866,7 +10874,7 @@
         <v>18</v>
       </c>
       <c r="E105" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -10883,7 +10891,7 @@
         <v>19</v>
       </c>
       <c r="E106" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -10900,7 +10908,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -10917,7 +10925,7 @@
         <v>21</v>
       </c>
       <c r="E108" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -11070,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -11087,7 +11095,7 @@
         <v>2</v>
       </c>
       <c r="E118" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -11104,7 +11112,7 @@
         <v>16</v>
       </c>
       <c r="E119" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -11121,7 +11129,7 @@
         <v>18</v>
       </c>
       <c r="E120" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -11461,7 +11469,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -11478,7 +11486,7 @@
         <v>8</v>
       </c>
       <c r="E141" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -11495,7 +11503,7 @@
         <v>9</v>
       </c>
       <c r="E142" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -11512,7 +11520,7 @@
         <v>10</v>
       </c>
       <c r="E143" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -11563,7 +11571,7 @@
         <v>17</v>
       </c>
       <c r="E146" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -11580,7 +11588,7 @@
         <v>19</v>
       </c>
       <c r="E147" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -11597,7 +11605,7 @@
         <v>22</v>
       </c>
       <c r="E148" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -11733,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -11750,7 +11758,7 @@
         <v>14</v>
       </c>
       <c r="E157" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -11767,7 +11775,7 @@
         <v>19</v>
       </c>
       <c r="E158" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -12141,7 +12149,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -12158,7 +12166,7 @@
         <v>15</v>
       </c>
       <c r="E181" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -12345,7 +12353,7 @@
         <v>3</v>
       </c>
       <c r="E192" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
@@ -12362,7 +12370,7 @@
         <v>17</v>
       </c>
       <c r="E193" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -12701,8 +12709,8 @@
       <c r="D213" s="62">
         <v>5</v>
       </c>
-      <c r="E213" s="70" t="s">
-        <v>85</v>
+      <c r="E213" s="77" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
@@ -12736,7 +12744,7 @@
         <v>3</v>
       </c>
       <c r="E215" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -12753,7 +12761,7 @@
         <v>5</v>
       </c>
       <c r="E216" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -12770,7 +12778,7 @@
         <v>7</v>
       </c>
       <c r="E217" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -12784,10 +12792,10 @@
         <v>14</v>
       </c>
       <c r="D218" s="62">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E218" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -12804,7 +12812,7 @@
         <v>13</v>
       </c>
       <c r="E219" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
@@ -12821,7 +12829,7 @@
         <v>15</v>
       </c>
       <c r="E220" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
@@ -13008,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="E231" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
@@ -13025,7 +13033,7 @@
         <v>2</v>
       </c>
       <c r="E232" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
@@ -13059,7 +13067,7 @@
         <v>15</v>
       </c>
       <c r="E234" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
@@ -13416,7 +13424,7 @@
         <v>18</v>
       </c>
       <c r="E255" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
@@ -13603,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="E266" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
@@ -13637,7 +13645,7 @@
         <v>22</v>
       </c>
       <c r="E268" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
@@ -13960,7 +13968,7 @@
         <v>5</v>
       </c>
       <c r="E287" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -13977,7 +13985,7 @@
         <v>16</v>
       </c>
       <c r="E288" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -13994,7 +14002,7 @@
         <v>17</v>
       </c>
       <c r="E289" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -14011,7 +14019,7 @@
         <v>19</v>
       </c>
       <c r="E290" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -14181,7 +14189,7 @@
         <v>15</v>
       </c>
       <c r="E300" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
@@ -14198,7 +14206,7 @@
         <v>19</v>
       </c>
       <c r="E301" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
